--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -451,20 +451,14 @@
         <v>32.30000000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>32.4</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>32.25000000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>32.3</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>32.45000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>32.65000000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>32.75000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>32.75000000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>32.85000000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>33</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>33.05000000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>33</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>33.10000000000004</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>33.05000000000004</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>33</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>33</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>32.75000000000004</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>32.75000000000004</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>32.80000000000005</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>32.90000000000004</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>32.95000000000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>33</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>32.95000000000005</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>32.90000000000004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>32.95000000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>33.00000000000004</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>33</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>32.85000000000004</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>32.90000000000004</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>32.8</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>32.75000000000004</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>32.65000000000004</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>32.60000000000004</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>32.7</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>32.70000000000005</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>32.60000000000004</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>32.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>32.75000000000004</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>32.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>32.95000000000005</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>33</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>33.05000000000004</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>33.10000000000004</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>33.10000000000004</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>33.20000000000003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>33.1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>33.30000000000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>33.30000000000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>33.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>33.45000000000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>33.6</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>33.55000000000003</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>33.5</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2549,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2588,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2666,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2705,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3992,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4183,16 +3709,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4255,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4325,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4710,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4780,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -5130,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5200,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5235,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5270,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5305,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -6842,13 +6366,17 @@
         <v>35.39999999999999</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>35.3</v>
+      </c>
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
@@ -6877,14 +6405,22 @@
         <v>35.89999999999999</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K172" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6912,14 +6448,22 @@
         <v>36.09999999999999</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7157,13 +6701,17 @@
         <v>36.05</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>36.1</v>
+      </c>
       <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
@@ -7192,14 +6740,22 @@
         <v>35.89999999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>36</v>
+      </c>
+      <c r="K181" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7233,8 +6789,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7402,14 +6964,20 @@
         <v>36.14999999999999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7444,7 +7012,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7472,14 +7044,20 @@
         <v>36.29999999999998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>36.1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7507,14 +7085,20 @@
         <v>36.44999999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7542,14 +7126,20 @@
         <v>36.24999999999999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>36.4</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7584,7 +7174,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7619,7 +7213,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7252,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +7291,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7724,7 +7330,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7759,7 +7369,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7794,7 +7408,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7829,7 +7447,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7864,7 +7486,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7899,7 +7525,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7934,7 +7564,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7969,7 +7603,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8004,7 +7642,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8039,7 +7681,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8074,7 +7720,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8109,7 +7759,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +7798,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8179,7 +7837,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8214,7 +7876,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8249,7 +7915,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8284,7 +7954,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8319,7 +7993,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8354,7 +8032,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8389,7 +8071,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8424,7 +8110,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8459,7 +8149,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8494,7 +8188,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8529,7 +8227,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8564,7 +8266,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8599,7 +8305,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +8344,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8669,7 +8383,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8704,7 +8422,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8739,7 +8461,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8774,7 +8500,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8809,7 +8539,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +8578,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8879,7 +8617,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8914,7 +8656,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8949,7 +8695,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8984,7 +8734,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9019,7 +8773,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9054,7 +8812,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9089,7 +8851,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9124,7 +8890,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9159,7 +8929,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9194,7 +8968,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9229,7 +9007,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9264,7 +9046,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9085,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9334,7 +9124,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9369,7 +9163,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9404,7 +9202,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9439,7 +9241,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9474,7 +9280,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9509,7 +9319,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9544,7 +9358,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9579,7 +9397,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9614,7 +9436,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9649,7 +9475,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9684,7 +9514,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9719,7 +9553,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9754,7 +9592,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +9631,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9670,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9859,7 +9709,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9894,7 +9748,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9929,7 +9787,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9964,7 +9826,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +9865,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10034,7 +9904,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10069,7 +9943,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10104,7 +9982,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10139,7 +10021,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10174,7 +10060,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10209,7 +10099,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10244,7 +10138,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10279,7 +10177,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10314,7 +10216,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10349,7 +10255,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10384,7 +10294,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10419,7 +10333,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10372,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10489,7 +10411,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10524,7 +10450,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10559,7 +10489,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10594,7 +10528,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10629,7 +10567,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10664,7 +10606,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10699,7 +10645,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10734,7 +10684,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10769,7 +10723,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10804,7 +10762,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10839,7 +10801,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +10840,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10909,7 +10879,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +10918,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10979,7 +10957,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11014,7 +10996,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11049,7 +11035,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11084,7 +11074,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11119,7 +11113,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11154,7 +11152,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +11191,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11224,7 +11230,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11259,7 +11269,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11294,7 +11308,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M298"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>32.4</v>
       </c>
       <c r="C2" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="D2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E2" t="n">
         <v>32.4</v>
       </c>
-      <c r="E2" t="n">
-        <v>32.2</v>
-      </c>
       <c r="F2" t="n">
-        <v>2877.1075</v>
+        <v>27474.6634</v>
       </c>
       <c r="G2" t="n">
-        <v>32.30000000000003</v>
+        <v>32.55666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="C3" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="D3" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="E3" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="F3" t="n">
-        <v>129.2992</v>
+        <v>2877.1075</v>
       </c>
       <c r="G3" t="n">
-        <v>32.25000000000003</v>
+        <v>32.53833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="C4" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7</v>
+        <v>32.3</v>
       </c>
       <c r="E4" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="F4" t="n">
-        <v>82216.8689</v>
+        <v>129.2992</v>
       </c>
       <c r="G4" t="n">
-        <v>32.45000000000002</v>
+        <v>32.52166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="C5" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D5" t="n">
         <v>32.7</v>
       </c>
-      <c r="D5" t="n">
-        <v>32.8</v>
-      </c>
       <c r="E5" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F5" t="n">
-        <v>36852.7775</v>
+        <v>82216.8689</v>
       </c>
       <c r="G5" t="n">
-        <v>32.65000000000003</v>
+        <v>32.51166666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>32.8</v>
       </c>
       <c r="C6" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D6" t="n">
         <v>32.8</v>
       </c>
       <c r="E6" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F6" t="n">
-        <v>10728.0104</v>
+        <v>36852.7775</v>
       </c>
       <c r="G6" t="n">
-        <v>32.75000000000003</v>
+        <v>32.50166666666666</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>32.8</v>
       </c>
       <c r="C7" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D7" t="n">
         <v>32.8</v>
       </c>
       <c r="E7" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F7" t="n">
-        <v>46715.351</v>
+        <v>10728.0104</v>
       </c>
       <c r="G7" t="n">
-        <v>32.75000000000003</v>
+        <v>32.49333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>32.8</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="F8" t="n">
-        <v>25370.5757</v>
+        <v>46715.351</v>
       </c>
       <c r="G8" t="n">
-        <v>32.85000000000003</v>
+        <v>32.48333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>51000</v>
+        <v>25370.5757</v>
       </c>
       <c r="G9" t="n">
-        <v>33.05000000000003</v>
+        <v>32.48166666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>33.1</v>
@@ -722,13 +722,13 @@
         <v>33.1</v>
       </c>
       <c r="E10" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
-        <v>263.8067</v>
+        <v>51000</v>
       </c>
       <c r="G10" t="n">
-        <v>33.10000000000004</v>
+        <v>32.48166666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="F11" t="n">
-        <v>129.214</v>
+        <v>263.8067</v>
       </c>
       <c r="G11" t="n">
-        <v>33.05000000000004</v>
+        <v>32.47333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>15786.1078</v>
+        <v>129.214</v>
       </c>
       <c r="G12" t="n">
-        <v>33.00000000000004</v>
+        <v>32.47</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>32.8</v>
+        <v>33.1</v>
       </c>
       <c r="E13" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
-        <v>32874.6899</v>
+        <v>15786.1078</v>
       </c>
       <c r="G13" t="n">
-        <v>32.85000000000004</v>
+        <v>32.46666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C14" t="n">
         <v>32.7</v>
       </c>
       <c r="D14" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E14" t="n">
         <v>32.7</v>
       </c>
       <c r="F14" t="n">
-        <v>48577.0911</v>
+        <v>32874.6899</v>
       </c>
       <c r="G14" t="n">
-        <v>32.70000000000005</v>
+        <v>32.45666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C15" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="D15" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="E15" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F15" t="n">
-        <v>2276.9449</v>
+        <v>48577.0911</v>
       </c>
       <c r="G15" t="n">
-        <v>32.75000000000004</v>
+        <v>32.44666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C16" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D16" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E16" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F16" t="n">
-        <v>693.0694999999999</v>
+        <v>2276.9449</v>
       </c>
       <c r="G16" t="n">
-        <v>32.75000000000004</v>
+        <v>32.43833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>32.7</v>
       </c>
       <c r="F17" t="n">
-        <v>4921.0201</v>
+        <v>693.0694999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>32.70000000000005</v>
+        <v>32.43</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>32.7</v>
       </c>
       <c r="F18" t="n">
-        <v>7740.4288</v>
+        <v>4921.0201</v>
       </c>
       <c r="G18" t="n">
-        <v>32.70000000000005</v>
+        <v>32.42166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C19" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="D19" t="n">
-        <v>32.9</v>
+        <v>32.7</v>
       </c>
       <c r="E19" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F19" t="n">
-        <v>14905.3043</v>
+        <v>7740.4288</v>
       </c>
       <c r="G19" t="n">
-        <v>32.80000000000005</v>
+        <v>32.41333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C20" t="n">
         <v>32.9</v>
@@ -1072,13 +1072,13 @@
         <v>32.9</v>
       </c>
       <c r="E20" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F20" t="n">
-        <v>44423.4215</v>
+        <v>14905.3043</v>
       </c>
       <c r="G20" t="n">
-        <v>32.90000000000004</v>
+        <v>32.405</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E21" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F21" t="n">
-        <v>12853.2904</v>
+        <v>44423.4215</v>
       </c>
       <c r="G21" t="n">
-        <v>32.95000000000005</v>
+        <v>32.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>11144.7445</v>
+        <v>12853.2904</v>
       </c>
       <c r="G22" t="n">
-        <v>32.95000000000005</v>
+        <v>32.39666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F23" t="n">
-        <v>13022.1845</v>
+        <v>11144.7445</v>
       </c>
       <c r="G23" t="n">
-        <v>32.85000000000004</v>
+        <v>32.39333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E24" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>13022.1845</v>
       </c>
       <c r="G24" t="n">
-        <v>32.85000000000004</v>
+        <v>32.38666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>32.9</v>
       </c>
       <c r="F25" t="n">
-        <v>18380.0566</v>
+        <v>500</v>
       </c>
       <c r="G25" t="n">
-        <v>32.90000000000004</v>
+        <v>32.38333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="C26" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="D26" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="E26" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="F26" t="n">
         <v>18380.0566</v>
       </c>
       <c r="G26" t="n">
-        <v>32.85000000000004</v>
+        <v>32.38000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="C27" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="D27" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="E27" t="n">
-        <v>32.9</v>
+        <v>32.8</v>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>18380.0566</v>
       </c>
       <c r="G27" t="n">
-        <v>32.85000000000004</v>
+        <v>32.37500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>32.9</v>
       </c>
       <c r="C28" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E28" t="n">
         <v>32.9</v>
       </c>
       <c r="F28" t="n">
-        <v>15103.8275</v>
+        <v>500</v>
       </c>
       <c r="G28" t="n">
-        <v>32.95000000000004</v>
+        <v>32.37500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C29" t="n">
         <v>33</v>
@@ -1387,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>15103.8275</v>
       </c>
       <c r="G29" t="n">
-        <v>33.00000000000004</v>
+        <v>32.39000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="E30" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>12725.078</v>
+        <v>500</v>
       </c>
       <c r="G30" t="n">
-        <v>32.85000000000004</v>
+        <v>32.40333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>32.7</v>
       </c>
       <c r="F31" t="n">
-        <v>306</v>
+        <v>12725.078</v>
       </c>
       <c r="G31" t="n">
-        <v>32.70000000000005</v>
+        <v>32.41333333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>32.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1378.4942</v>
+        <v>306</v>
       </c>
       <c r="G32" t="n">
-        <v>32.70000000000005</v>
+        <v>32.41833333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>32.7</v>
       </c>
       <c r="F33" t="n">
-        <v>692.8964999999999</v>
+        <v>1378.4942</v>
       </c>
       <c r="G33" t="n">
-        <v>32.70000000000005</v>
+        <v>32.42666666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="D34" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="E34" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="F34" t="n">
-        <v>4781.2963</v>
+        <v>692.8964999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>32.85000000000004</v>
+        <v>32.44166666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>32.8</v>
       </c>
       <c r="C35" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="D35" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
         <v>32.8</v>
       </c>
       <c r="F35" t="n">
-        <v>8743.0123</v>
+        <v>4781.2963</v>
       </c>
       <c r="G35" t="n">
-        <v>32.90000000000004</v>
+        <v>32.46166666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="C36" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="D36" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="E36" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="F36" t="n">
-        <v>7719.1482</v>
+        <v>8743.0123</v>
       </c>
       <c r="G36" t="n">
-        <v>32.75000000000004</v>
+        <v>32.48000000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>32.7</v>
       </c>
       <c r="F37" t="n">
-        <v>17072.3365</v>
+        <v>7719.1482</v>
       </c>
       <c r="G37" t="n">
-        <v>32.70000000000005</v>
+        <v>32.49333333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C38" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="D38" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="E38" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F38" t="n">
-        <v>8697.2282</v>
+        <v>17072.3365</v>
       </c>
       <c r="G38" t="n">
-        <v>32.65000000000004</v>
+        <v>32.50666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>32.6</v>
       </c>
       <c r="F39" t="n">
-        <v>10359.7354</v>
+        <v>8697.2282</v>
       </c>
       <c r="G39" t="n">
-        <v>32.60000000000004</v>
+        <v>32.52000000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="C40" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="D40" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="E40" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="F40" t="n">
-        <v>30614.3961</v>
+        <v>10359.7354</v>
       </c>
       <c r="G40" t="n">
-        <v>32.70000000000005</v>
+        <v>32.53333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="C41" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="D41" t="n">
-        <v>32.6</v>
+        <v>32.8</v>
       </c>
       <c r="E41" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="F41" t="n">
-        <v>1367.9204</v>
+        <v>30614.3961</v>
       </c>
       <c r="G41" t="n">
-        <v>32.70000000000005</v>
+        <v>32.55166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>32.6</v>
       </c>
       <c r="F42" t="n">
-        <v>7942.1817</v>
+        <v>1367.9204</v>
       </c>
       <c r="G42" t="n">
-        <v>32.60000000000004</v>
+        <v>32.56833333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="C43" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="D43" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="E43" t="n">
-        <v>32.9</v>
+        <v>32.6</v>
       </c>
       <c r="F43" t="n">
-        <v>19324.575</v>
+        <v>7942.1817</v>
       </c>
       <c r="G43" t="n">
-        <v>32.75000000000004</v>
+        <v>32.58833333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="C44" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="D44" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="E44" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="F44" t="n">
-        <v>11837.0999</v>
+        <v>19324.575</v>
       </c>
       <c r="G44" t="n">
-        <v>32.95000000000005</v>
+        <v>32.61333333333334</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E45" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="F45" t="n">
-        <v>261.6743</v>
+        <v>11837.0999</v>
       </c>
       <c r="G45" t="n">
-        <v>33.05000000000004</v>
+        <v>32.63833333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>33.1</v>
       </c>
       <c r="F46" t="n">
-        <v>3387.2726</v>
+        <v>261.6743</v>
       </c>
       <c r="G46" t="n">
-        <v>33.10000000000004</v>
+        <v>32.65833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>33.1</v>
       </c>
       <c r="F47" t="n">
-        <v>13957.6731</v>
+        <v>3387.2726</v>
       </c>
       <c r="G47" t="n">
-        <v>33.10000000000004</v>
+        <v>32.675</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>33.1</v>
       </c>
       <c r="C48" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="D48" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="E48" t="n">
         <v>33.1</v>
       </c>
       <c r="F48" t="n">
-        <v>1204.3701</v>
+        <v>13957.6731</v>
       </c>
       <c r="G48" t="n">
-        <v>33.20000000000003</v>
+        <v>32.695</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="C49" t="n">
         <v>33.3</v>
@@ -2087,23 +2087,29 @@
         <v>33.3</v>
       </c>
       <c r="E49" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="F49" t="n">
-        <v>500</v>
+        <v>1204.3701</v>
       </c>
       <c r="G49" t="n">
-        <v>33.30000000000003</v>
+        <v>32.71166666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>33.1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2125,10 +2131,10 @@
         <v>33.3</v>
       </c>
       <c r="F50" t="n">
-        <v>19607.2189</v>
+        <v>500</v>
       </c>
       <c r="G50" t="n">
-        <v>33.30000000000003</v>
+        <v>32.72833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2144,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2158,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="C51" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="D51" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="E51" t="n">
-        <v>33.6</v>
+        <v>33.3</v>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>19607.2189</v>
       </c>
       <c r="G51" t="n">
-        <v>33.45000000000002</v>
+        <v>32.74833333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2183,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2197,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="C52" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D52" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="E52" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="F52" t="n">
-        <v>16479.8911</v>
+        <v>500</v>
       </c>
       <c r="G52" t="n">
-        <v>33.55000000000003</v>
+        <v>32.77333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2222,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="C53" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="D53" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="E53" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="F53" t="n">
-        <v>200</v>
+        <v>16479.8911</v>
       </c>
       <c r="G53" t="n">
-        <v>33.45000000000003</v>
+        <v>32.79166666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2261,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2275,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="C54" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D54" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="E54" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="F54" t="n">
-        <v>29061.2939</v>
+        <v>200</v>
       </c>
       <c r="G54" t="n">
-        <v>33.50000000000003</v>
+        <v>32.81166666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2300,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2326,10 @@
         <v>33.6</v>
       </c>
       <c r="F55" t="n">
-        <v>674.5166</v>
+        <v>29061.2939</v>
       </c>
       <c r="G55" t="n">
-        <v>33.60000000000002</v>
+        <v>32.82833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2339,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2365,10 @@
         <v>33.6</v>
       </c>
       <c r="F56" t="n">
-        <v>264.1895</v>
+        <v>674.5166</v>
       </c>
       <c r="G56" t="n">
-        <v>33.60000000000002</v>
+        <v>32.85166666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2378,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2392,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="C57" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="D57" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="E57" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="F57" t="n">
-        <v>1063.0663</v>
+        <v>264.1895</v>
       </c>
       <c r="G57" t="n">
-        <v>33.50000000000003</v>
+        <v>32.87333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2417,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2431,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="C58" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="D58" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="E58" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="F58" t="n">
-        <v>9769.323200000001</v>
+        <v>1063.0663</v>
       </c>
       <c r="G58" t="n">
-        <v>33.55000000000003</v>
+        <v>32.88666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2456,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2482,10 @@
         <v>33.7</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>9769.323200000001</v>
       </c>
       <c r="G59" t="n">
-        <v>33.70000000000003</v>
+        <v>32.91</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2495,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2509,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="C60" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="D60" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="E60" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="F60" t="n">
-        <v>74659.5102</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>33.85000000000003</v>
+        <v>32.93333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2534,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,22 +2548,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="C61" t="n">
         <v>34</v>
       </c>
-      <c r="C61" t="n">
-        <v>34.2</v>
-      </c>
       <c r="D61" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="E61" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="F61" t="n">
-        <v>22796.2944</v>
+        <v>74659.5102</v>
       </c>
       <c r="G61" t="n">
-        <v>34.10000000000003</v>
+        <v>32.96</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2573,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2587,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>34.2</v>
       </c>
       <c r="D62" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="E62" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F62" t="n">
-        <v>138822.331</v>
+        <v>22796.2944</v>
       </c>
       <c r="G62" t="n">
-        <v>34.35000000000003</v>
+        <v>32.98999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2612,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2626,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C63" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="D63" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="E63" t="n">
         <v>34.4</v>
       </c>
       <c r="F63" t="n">
-        <v>1500</v>
+        <v>138822.331</v>
       </c>
       <c r="G63" t="n">
-        <v>34.65000000000003</v>
+        <v>33.02833333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2651,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2665,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="C64" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D64" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E64" t="n">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G64" t="n">
-        <v>34.90000000000003</v>
+        <v>33.07</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2690,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,42 +2704,44 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C65" t="n">
         <v>35</v>
       </c>
-      <c r="C65" t="n">
-        <v>35.3</v>
-      </c>
       <c r="D65" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="E65" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F65" t="n">
-        <v>3989.8858</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="n">
-        <v>35.15000000000003</v>
+        <v>33.11</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="C66" t="n">
         <v>35.3</v>
@@ -2682,19 +2750,19 @@
         <v>35.3</v>
       </c>
       <c r="E66" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F66" t="n">
-        <v>20000</v>
+        <v>3989.8858</v>
       </c>
       <c r="G66" t="n">
-        <v>35.30000000000003</v>
+        <v>33.15333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2708,22 +2776,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C67" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="D67" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E67" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F67" t="n">
-        <v>126.2185</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>35.20000000000002</v>
+        <v>33.195</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2811,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>34.7</v>
+        <v>35.1</v>
       </c>
       <c r="C68" t="n">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="D68" t="n">
-        <v>34.7</v>
+        <v>35.1</v>
       </c>
       <c r="E68" t="n">
-        <v>34.5</v>
+        <v>35.1</v>
       </c>
       <c r="F68" t="n">
-        <v>12767.75</v>
+        <v>126.2185</v>
       </c>
       <c r="G68" t="n">
-        <v>34.80000000000003</v>
+        <v>33.23499999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2846,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="C69" t="n">
-        <v>33.7</v>
+        <v>34.5</v>
       </c>
       <c r="D69" t="n">
-        <v>34</v>
+        <v>34.7</v>
       </c>
       <c r="E69" t="n">
-        <v>33.7</v>
+        <v>34.5</v>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>12767.75</v>
       </c>
       <c r="G69" t="n">
-        <v>34.10000000000002</v>
+        <v>33.26</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2884,19 @@
         <v>34</v>
       </c>
       <c r="C70" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="D70" t="n">
         <v>34</v>
       </c>
       <c r="E70" t="n">
-        <v>34</v>
+        <v>33.7</v>
       </c>
       <c r="F70" t="n">
-        <v>468.75</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>33.85000000000002</v>
+        <v>33.27</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2916,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C71" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="E71" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>851.3526000000001</v>
+        <v>468.75</v>
       </c>
       <c r="G71" t="n">
-        <v>34.20000000000002</v>
+        <v>33.285</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2951,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C72" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D72" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E72" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F72" t="n">
-        <v>1009.1221</v>
+        <v>851.3526000000001</v>
       </c>
       <c r="G72" t="n">
-        <v>34.45000000000002</v>
+        <v>33.30833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2989,19 @@
         <v>34.5</v>
       </c>
       <c r="C73" t="n">
-        <v>34.9</v>
+        <v>34.5</v>
       </c>
       <c r="D73" t="n">
-        <v>35.8</v>
+        <v>34.5</v>
       </c>
       <c r="E73" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="F73" t="n">
-        <v>21968.5233</v>
+        <v>1009.1221</v>
       </c>
       <c r="G73" t="n">
-        <v>34.70000000000002</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3021,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="C74" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D74" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="E74" t="n">
-        <v>34.7</v>
+        <v>34.3</v>
       </c>
       <c r="F74" t="n">
-        <v>1901.3526</v>
+        <v>21968.5233</v>
       </c>
       <c r="G74" t="n">
-        <v>34.85000000000002</v>
+        <v>33.37</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3056,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C75" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D75" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E75" t="n">
         <v>34.7</v>
       </c>
       <c r="F75" t="n">
-        <v>851.352</v>
+        <v>1901.3526</v>
       </c>
       <c r="G75" t="n">
-        <v>34.75000000000001</v>
+        <v>33.405</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3091,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="C76" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="D76" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E76" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="F76" t="n">
-        <v>82157.08409999999</v>
+        <v>851.352</v>
       </c>
       <c r="G76" t="n">
-        <v>34.60000000000002</v>
+        <v>33.43666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3138,10 @@
         <v>34.5</v>
       </c>
       <c r="F77" t="n">
-        <v>9113.9661</v>
+        <v>82157.08409999999</v>
       </c>
       <c r="G77" t="n">
-        <v>34.50000000000001</v>
+        <v>33.46666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3161,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="C78" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="D78" t="n">
-        <v>34.3</v>
+        <v>34.6</v>
       </c>
       <c r="E78" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="F78" t="n">
-        <v>468.75</v>
+        <v>9113.9661</v>
       </c>
       <c r="G78" t="n">
-        <v>34.40000000000001</v>
+        <v>33.49666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3196,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="C79" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="D79" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="E79" t="n">
-        <v>34</v>
+        <v>34.3</v>
       </c>
       <c r="F79" t="n">
-        <v>122644.0501</v>
+        <v>468.75</v>
       </c>
       <c r="G79" t="n">
-        <v>34.20000000000002</v>
+        <v>33.52333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3231,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E80" t="n">
         <v>34</v>
       </c>
-      <c r="C80" t="n">
-        <v>34</v>
-      </c>
-      <c r="D80" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="E80" t="n">
-        <v>33.9</v>
-      </c>
       <c r="F80" t="n">
-        <v>152900.885</v>
+        <v>122644.0501</v>
       </c>
       <c r="G80" t="n">
-        <v>34.05000000000002</v>
+        <v>33.54333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3266,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="C81" t="n">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="D81" t="n">
-        <v>34.8</v>
+        <v>34.1</v>
       </c>
       <c r="E81" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="F81" t="n">
-        <v>41236.2744</v>
+        <v>152900.885</v>
       </c>
       <c r="G81" t="n">
-        <v>34.10000000000002</v>
+        <v>33.56166666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3301,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C82" t="n">
         <v>34.2</v>
       </c>
-      <c r="C82" t="n">
-        <v>35.1</v>
-      </c>
       <c r="D82" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="E82" t="n">
         <v>34.2</v>
       </c>
       <c r="F82" t="n">
-        <v>7180.7917</v>
+        <v>41236.2744</v>
       </c>
       <c r="G82" t="n">
-        <v>34.65000000000002</v>
+        <v>33.58166666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3336,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="C83" t="n">
-        <v>34.7</v>
+        <v>35.1</v>
       </c>
       <c r="D83" t="n">
-        <v>34.7</v>
+        <v>35.1</v>
       </c>
       <c r="E83" t="n">
-        <v>34.7</v>
+        <v>34.2</v>
       </c>
       <c r="F83" t="n">
-        <v>40823.0418</v>
+        <v>7180.7917</v>
       </c>
       <c r="G83" t="n">
-        <v>34.90000000000002</v>
+        <v>33.61833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3383,10 @@
         <v>34.7</v>
       </c>
       <c r="F84" t="n">
-        <v>4581.6582</v>
+        <v>40823.0418</v>
       </c>
       <c r="G84" t="n">
-        <v>34.70000000000002</v>
+        <v>33.64999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3409,19 @@
         <v>34.7</v>
       </c>
       <c r="C85" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D85" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E85" t="n">
         <v>34.7</v>
       </c>
       <c r="F85" t="n">
-        <v>68400.3645</v>
+        <v>4581.6582</v>
       </c>
       <c r="G85" t="n">
-        <v>34.80000000000002</v>
+        <v>33.67999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3441,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.1</v>
+        <v>34.7</v>
       </c>
       <c r="C86" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="D86" t="n">
-        <v>35.3</v>
+        <v>34.9</v>
       </c>
       <c r="E86" t="n">
-        <v>35</v>
+        <v>34.7</v>
       </c>
       <c r="F86" t="n">
-        <v>36633.7791</v>
+        <v>68400.3645</v>
       </c>
       <c r="G86" t="n">
-        <v>35.10000000000002</v>
+        <v>33.71333333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,7 +3476,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="C87" t="n">
         <v>35.3</v>
@@ -3417,13 +3485,13 @@
         <v>35.3</v>
       </c>
       <c r="E87" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F87" t="n">
-        <v>3072.8846</v>
+        <v>36633.7791</v>
       </c>
       <c r="G87" t="n">
-        <v>35.30000000000001</v>
+        <v>33.75499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3511,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="C88" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D88" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="F88" t="n">
-        <v>113.86</v>
+        <v>3072.8846</v>
       </c>
       <c r="G88" t="n">
-        <v>35.15000000000001</v>
+        <v>33.79499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3546,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="C89" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="D89" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="E89" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="F89" t="n">
-        <v>3363.8634</v>
+        <v>113.86</v>
       </c>
       <c r="G89" t="n">
-        <v>35.15000000000001</v>
+        <v>33.82833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3584,19 @@
         <v>35.3</v>
       </c>
       <c r="C90" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="D90" t="n">
-        <v>35.7</v>
+        <v>35.3</v>
       </c>
       <c r="E90" t="n">
         <v>35.3</v>
       </c>
       <c r="F90" t="n">
-        <v>3123.0449</v>
+        <v>3363.8634</v>
       </c>
       <c r="G90" t="n">
-        <v>35.50000000000001</v>
+        <v>33.86666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3616,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.9</v>
+        <v>35.3</v>
       </c>
       <c r="C91" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="D91" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="E91" t="n">
-        <v>35.9</v>
+        <v>35.3</v>
       </c>
       <c r="F91" t="n">
-        <v>64067.3869</v>
+        <v>3123.0449</v>
       </c>
       <c r="G91" t="n">
-        <v>35.85000000000002</v>
+        <v>33.91666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3654,19 @@
         <v>35.9</v>
       </c>
       <c r="C92" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D92" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="E92" t="n">
         <v>35.9</v>
       </c>
       <c r="F92" t="n">
-        <v>74192.7304</v>
+        <v>64067.3869</v>
       </c>
       <c r="G92" t="n">
-        <v>36.10000000000002</v>
+        <v>33.97166666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3686,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C93" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D93" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="E93" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F93" t="n">
-        <v>3526.8964</v>
+        <v>74192.7304</v>
       </c>
       <c r="G93" t="n">
-        <v>36.15000000000002</v>
+        <v>34.02999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3721,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C94" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="D94" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E94" t="n">
-        <v>35.8</v>
+        <v>36.1</v>
       </c>
       <c r="F94" t="n">
-        <v>23278.9353</v>
+        <v>3526.8964</v>
       </c>
       <c r="G94" t="n">
-        <v>35.95000000000002</v>
+        <v>34.08666666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3759,19 @@
         <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="D95" t="n">
         <v>36</v>
       </c>
       <c r="E95" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="F95" t="n">
-        <v>10882.146</v>
+        <v>23278.9353</v>
       </c>
       <c r="G95" t="n">
-        <v>35.90000000000002</v>
+        <v>34.13333333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3791,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="C96" t="n">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
         <v>36</v>
       </c>
       <c r="E96" t="n">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="F96" t="n">
-        <v>87679.1051</v>
+        <v>10882.146</v>
       </c>
       <c r="G96" t="n">
-        <v>35.75000000000002</v>
+        <v>34.18666666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3826,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="D97" t="n">
-        <v>35.7</v>
+        <v>36</v>
       </c>
       <c r="E97" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="F97" t="n">
-        <v>140822.4382</v>
+        <v>87679.1051</v>
       </c>
       <c r="G97" t="n">
-        <v>35.25000000000002</v>
+        <v>34.23333333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3861,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="C98" t="n">
         <v>35</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>35.7</v>
       </c>
       <c r="E98" t="n">
         <v>35</v>
       </c>
       <c r="F98" t="n">
-        <v>1655.1674</v>
+        <v>140822.4382</v>
       </c>
       <c r="G98" t="n">
-        <v>35.00000000000002</v>
+        <v>34.27166666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3896,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="C99" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D99" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="E99" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="F99" t="n">
-        <v>6941.1449</v>
+        <v>1655.1674</v>
       </c>
       <c r="G99" t="n">
-        <v>34.90000000000002</v>
+        <v>34.31166666666665</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3931,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C100" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D100" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E100" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F100" t="n">
-        <v>114</v>
+        <v>6941.1449</v>
       </c>
       <c r="G100" t="n">
-        <v>34.90000000000002</v>
+        <v>34.34833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3966,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C101" t="n">
         <v>35</v>
       </c>
-      <c r="C101" t="n">
-        <v>35.4</v>
-      </c>
       <c r="D101" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F101" t="n">
-        <v>3545.75</v>
+        <v>114</v>
       </c>
       <c r="G101" t="n">
-        <v>35.20000000000002</v>
+        <v>34.38499999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4001,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" t="n">
-        <v>36</v>
+        <v>35.4</v>
       </c>
       <c r="D102" t="n">
-        <v>36</v>
+        <v>35.4</v>
       </c>
       <c r="E102" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="n">
-        <v>500</v>
+        <v>3545.75</v>
       </c>
       <c r="G102" t="n">
-        <v>35.70000000000002</v>
+        <v>34.43166666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4036,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="C103" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="E103" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="F103" t="n">
-        <v>3567</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>36.20000000000002</v>
+        <v>34.48833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4071,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C104" t="n">
         <v>36.4</v>
       </c>
-      <c r="C104" t="n">
-        <v>36.6</v>
-      </c>
       <c r="D104" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="E104" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F104" t="n">
-        <v>142383.0303</v>
+        <v>3567</v>
       </c>
       <c r="G104" t="n">
-        <v>36.50000000000001</v>
+        <v>34.54666666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,7 +4106,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C105" t="n">
         <v>36.6</v>
@@ -4047,13 +4115,13 @@
         <v>36.6</v>
       </c>
       <c r="E105" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F105" t="n">
-        <v>45965.2771</v>
+        <v>142383.0303</v>
       </c>
       <c r="G105" t="n">
-        <v>36.60000000000001</v>
+        <v>34.60666666666666</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4141,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C106" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D106" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E106" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="F106" t="n">
-        <v>7406.7902</v>
+        <v>45965.2771</v>
       </c>
       <c r="G106" t="n">
-        <v>36.65000000000001</v>
+        <v>34.66499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4176,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="C107" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D107" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E107" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F107" t="n">
-        <v>700</v>
+        <v>7406.7902</v>
       </c>
       <c r="G107" t="n">
-        <v>36.65000000000001</v>
+        <v>34.72499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4223,10 @@
         <v>36.6</v>
       </c>
       <c r="F108" t="n">
-        <v>3727.1185</v>
+        <v>700</v>
       </c>
       <c r="G108" t="n">
-        <v>36.6</v>
+        <v>34.78333333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4258,10 @@
         <v>36.6</v>
       </c>
       <c r="F109" t="n">
-        <v>2795.3389</v>
+        <v>3727.1185</v>
       </c>
       <c r="G109" t="n">
-        <v>36.60000000000001</v>
+        <v>34.83833333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4281,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C110" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="D110" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E110" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F110" t="n">
-        <v>2102.248</v>
+        <v>2795.3389</v>
       </c>
       <c r="G110" t="n">
-        <v>36.55000000000001</v>
+        <v>34.89333333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4254,16 +4322,16 @@
         <v>36.5</v>
       </c>
       <c r="D111" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="E111" t="n">
         <v>36.5</v>
       </c>
       <c r="F111" t="n">
-        <v>195718.6217</v>
+        <v>2102.248</v>
       </c>
       <c r="G111" t="n">
-        <v>36.50000000000001</v>
+        <v>34.94666666666664</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4354,19 @@
         <v>36.5</v>
       </c>
       <c r="C112" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D112" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E112" t="n">
         <v>36.5</v>
       </c>
-      <c r="E112" t="n">
-        <v>36.3</v>
-      </c>
       <c r="F112" t="n">
-        <v>1184.366438356164</v>
+        <v>195718.6217</v>
       </c>
       <c r="G112" t="n">
-        <v>36.40000000000001</v>
+        <v>34.99499999999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,28 +4386,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="C113" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="D113" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="E113" t="n">
-        <v>36</v>
+        <v>36.3</v>
       </c>
       <c r="F113" t="n">
-        <v>38720.7938</v>
+        <v>1184.366438356164</v>
       </c>
       <c r="G113" t="n">
-        <v>36.15000000000001</v>
+        <v>35.04166666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4353,22 +4421,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="C114" t="n">
-        <v>36.8</v>
+        <v>36</v>
       </c>
       <c r="D114" t="n">
-        <v>36.8</v>
+        <v>36.1</v>
       </c>
       <c r="E114" t="n">
-        <v>36.7</v>
+        <v>36</v>
       </c>
       <c r="F114" t="n">
-        <v>6776</v>
+        <v>38720.7938</v>
       </c>
       <c r="G114" t="n">
-        <v>36.40000000000001</v>
+        <v>35.08499999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4456,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="C115" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D115" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E115" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F115" t="n">
-        <v>16.2266</v>
+        <v>6776</v>
       </c>
       <c r="G115" t="n">
-        <v>36.70000000000002</v>
+        <v>35.13833333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4491,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C116" t="n">
         <v>36.6</v>
       </c>
       <c r="D116" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E116" t="n">
         <v>36.6</v>
       </c>
       <c r="F116" t="n">
-        <v>1020.9236</v>
+        <v>16.2266</v>
       </c>
       <c r="G116" t="n">
-        <v>36.60000000000002</v>
+        <v>35.18833333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4529,19 @@
         <v>36.8</v>
       </c>
       <c r="C117" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="D117" t="n">
         <v>36.8</v>
       </c>
       <c r="E117" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F117" t="n">
-        <v>1320.7577</v>
+        <v>1020.9236</v>
       </c>
       <c r="G117" t="n">
-        <v>36.65000000000002</v>
+        <v>35.23833333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4561,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C118" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="D118" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="E118" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F118" t="n">
-        <v>47794.2922</v>
+        <v>1320.7577</v>
       </c>
       <c r="G118" t="n">
-        <v>36.95000000000002</v>
+        <v>35.29333333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4596,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="C119" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D119" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E119" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F119" t="n">
-        <v>95.0044</v>
+        <v>47794.2922</v>
       </c>
       <c r="G119" t="n">
-        <v>37.10000000000002</v>
+        <v>35.35166666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4631,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C120" t="n">
         <v>37</v>
       </c>
-      <c r="C120" t="n">
-        <v>37.4</v>
-      </c>
       <c r="D120" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="E120" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F120" t="n">
-        <v>85599.4955</v>
+        <v>95.0044</v>
       </c>
       <c r="G120" t="n">
-        <v>37.20000000000001</v>
+        <v>35.40666666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4666,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="C121" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D121" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="E121" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F121" t="n">
-        <v>42014.8905</v>
+        <v>85599.4955</v>
       </c>
       <c r="G121" t="n">
-        <v>37.35000000000001</v>
+        <v>35.46333333333332</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4701,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="C122" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D122" t="n">
         <v>37.4</v>
       </c>
-      <c r="D122" t="n">
-        <v>37.5</v>
-      </c>
       <c r="E122" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F122" t="n">
-        <v>79073.495</v>
+        <v>42014.8905</v>
       </c>
       <c r="G122" t="n">
-        <v>37.35000000000001</v>
+        <v>35.51499999999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4736,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D123" t="n">
         <v>37.5</v>
       </c>
-      <c r="C123" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D123" t="n">
-        <v>37.6</v>
-      </c>
       <c r="E123" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="F123" t="n">
-        <v>161176.3321</v>
+        <v>79073.495</v>
       </c>
       <c r="G123" t="n">
-        <v>37.50000000000001</v>
+        <v>35.56333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4771,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C124" t="n">
         <v>37.6</v>
       </c>
       <c r="D124" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="E124" t="n">
         <v>37.4</v>
       </c>
       <c r="F124" t="n">
-        <v>39537.571</v>
+        <v>161176.3321</v>
       </c>
       <c r="G124" t="n">
-        <v>37.60000000000001</v>
+        <v>35.60999999999999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4806,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="C125" t="n">
         <v>37.6</v>
       </c>
       <c r="D125" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="E125" t="n">
-        <v>37</v>
+        <v>37.4</v>
       </c>
       <c r="F125" t="n">
-        <v>229993.9863</v>
+        <v>39537.571</v>
       </c>
       <c r="G125" t="n">
-        <v>37.60000000000001</v>
+        <v>35.65333333333332</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4841,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="C126" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="D126" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="E126" t="n">
         <v>37</v>
       </c>
       <c r="F126" t="n">
-        <v>57705.4503</v>
+        <v>229993.9863</v>
       </c>
       <c r="G126" t="n">
-        <v>37.50000000000001</v>
+        <v>35.69166666666665</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4876,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="C127" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D127" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="E127" t="n">
-        <v>37.3</v>
+        <v>37</v>
       </c>
       <c r="F127" t="n">
-        <v>112.8787</v>
+        <v>57705.4503</v>
       </c>
       <c r="G127" t="n">
-        <v>37.35000000000001</v>
+        <v>35.72666666666665</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4911,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="C128" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="D128" t="n">
-        <v>37.6</v>
+        <v>37.3</v>
       </c>
       <c r="E128" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F128" t="n">
-        <v>248.6596</v>
+        <v>112.8787</v>
       </c>
       <c r="G128" t="n">
-        <v>37.45</v>
+        <v>35.76333333333332</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4946,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C129" t="n">
         <v>37.6</v>
       </c>
-      <c r="C129" t="n">
-        <v>37.8</v>
-      </c>
       <c r="D129" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="E129" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="F129" t="n">
-        <v>87881.1289</v>
+        <v>248.6596</v>
       </c>
       <c r="G129" t="n">
-        <v>37.7</v>
+        <v>35.81499999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +4981,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="C130" t="n">
         <v>37.8</v>
@@ -4922,13 +4990,13 @@
         <v>37.8</v>
       </c>
       <c r="E130" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="F130" t="n">
-        <v>203718.4952</v>
+        <v>87881.1289</v>
       </c>
       <c r="G130" t="n">
-        <v>37.8</v>
+        <v>35.88333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +5016,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="C131" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="D131" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="E131" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="F131" t="n">
-        <v>17535.9839</v>
+        <v>203718.4952</v>
       </c>
       <c r="G131" t="n">
-        <v>37.75</v>
+        <v>35.94666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5051,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="C132" t="n">
         <v>37.7</v>
       </c>
       <c r="D132" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="E132" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="F132" t="n">
-        <v>171641.3081</v>
+        <v>17535.9839</v>
       </c>
       <c r="G132" t="n">
-        <v>37.7</v>
+        <v>36.00166666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5086,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C133" t="n">
         <v>37.7</v>
       </c>
-      <c r="C133" t="n">
-        <v>37.6</v>
-      </c>
       <c r="D133" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E133" t="n">
         <v>37.7</v>
       </c>
-      <c r="E133" t="n">
-        <v>37.6</v>
-      </c>
       <c r="F133" t="n">
-        <v>139099.7347</v>
+        <v>171641.3081</v>
       </c>
       <c r="G133" t="n">
-        <v>37.65</v>
+        <v>36.05499999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5121,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="C134" t="n">
         <v>37.6</v>
       </c>
-      <c r="C134" t="n">
-        <v>37.5</v>
-      </c>
       <c r="D134" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E134" t="n">
         <v>37.6</v>
       </c>
-      <c r="E134" t="n">
-        <v>37.4</v>
-      </c>
       <c r="F134" t="n">
-        <v>81</v>
+        <v>139099.7347</v>
       </c>
       <c r="G134" t="n">
-        <v>37.55</v>
+        <v>36.09999999999999</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5156,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="C135" t="n">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="D135" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="E135" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="F135" t="n">
-        <v>15604.9057</v>
+        <v>81</v>
       </c>
       <c r="G135" t="n">
-        <v>37.3</v>
+        <v>36.14499999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5191,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="C136" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="D136" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="E136" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F136" t="n">
-        <v>15349.8416</v>
+        <v>15604.9057</v>
       </c>
       <c r="G136" t="n">
-        <v>37.15</v>
+        <v>36.18499999999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5226,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="C137" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="D137" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E137" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="F137" t="n">
-        <v>157.3235</v>
+        <v>15349.8416</v>
       </c>
       <c r="G137" t="n">
-        <v>37.25</v>
+        <v>36.22999999999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5261,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="C138" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="D138" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="E138" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="F138" t="n">
-        <v>5640.0003</v>
+        <v>157.3235</v>
       </c>
       <c r="G138" t="n">
-        <v>37.2</v>
+        <v>36.27666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,19 +5299,19 @@
         <v>37.1</v>
       </c>
       <c r="C139" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="D139" t="n">
         <v>37.1</v>
       </c>
       <c r="E139" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F139" t="n">
-        <v>58046.7312</v>
+        <v>5640.0003</v>
       </c>
       <c r="G139" t="n">
-        <v>37.05</v>
+        <v>36.32333333333331</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,32 +5331,38 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="C140" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="D140" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="E140" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F140" t="n">
-        <v>30984.3029</v>
+        <v>58046.7312</v>
       </c>
       <c r="G140" t="n">
-        <v>37.09999999999999</v>
+        <v>36.37166666666665</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>37.1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5298,32 +5372,38 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="C141" t="n">
         <v>37.2</v>
       </c>
       <c r="D141" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="E141" t="n">
         <v>37.2</v>
       </c>
       <c r="F141" t="n">
-        <v>98240.1735</v>
+        <v>30984.3029</v>
       </c>
       <c r="G141" t="n">
-        <v>37.2</v>
+        <v>36.42499999999998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>37</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5345,10 +5425,10 @@
         <v>37.2</v>
       </c>
       <c r="F142" t="n">
-        <v>15.84</v>
+        <v>98240.1735</v>
       </c>
       <c r="G142" t="n">
-        <v>37.2</v>
+        <v>36.47499999999998</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5438,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5380,10 +5464,10 @@
         <v>37.2</v>
       </c>
       <c r="F143" t="n">
-        <v>11824.5322</v>
+        <v>15.84</v>
       </c>
       <c r="G143" t="n">
-        <v>37.2</v>
+        <v>36.50999999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5477,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5491,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="C144" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="D144" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="E144" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F144" t="n">
-        <v>1502.3377</v>
+        <v>11824.5322</v>
       </c>
       <c r="G144" t="n">
-        <v>37.15</v>
+        <v>36.55166666666664</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5516,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5438,22 +5530,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="C145" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="D145" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="E145" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="F145" t="n">
-        <v>20380.2677</v>
+        <v>1502.3377</v>
       </c>
       <c r="G145" t="n">
-        <v>37.15</v>
+        <v>36.59166666666665</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5555,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,10 +5581,10 @@
         <v>37.2</v>
       </c>
       <c r="F146" t="n">
-        <v>1526.378</v>
+        <v>20380.2677</v>
       </c>
       <c r="G146" t="n">
-        <v>37.2</v>
+        <v>36.62999999999997</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +5594,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5508,22 +5608,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="C147" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="D147" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="E147" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F147" t="n">
-        <v>1434.0027</v>
+        <v>1526.378</v>
       </c>
       <c r="G147" t="n">
-        <v>37.15</v>
+        <v>36.66166666666663</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +5633,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5647,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="C148" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D148" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E148" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F148" t="n">
-        <v>31533.3845</v>
+        <v>1434.0027</v>
       </c>
       <c r="G148" t="n">
-        <v>36.99999999999999</v>
+        <v>36.69166666666663</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +5672,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5578,22 +5686,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C149" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D149" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="E149" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F149" t="n">
-        <v>12319.1156</v>
+        <v>31533.3845</v>
       </c>
       <c r="G149" t="n">
-        <v>36.8</v>
+        <v>36.72333333333329</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +5711,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5616,19 +5728,19 @@
         <v>36.7</v>
       </c>
       <c r="C150" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D150" t="n">
         <v>36.7</v>
       </c>
       <c r="E150" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="F150" t="n">
-        <v>30874.1597</v>
+        <v>12319.1156</v>
       </c>
       <c r="G150" t="n">
-        <v>36.64999999999999</v>
+        <v>36.74666666666663</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +5750,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +5764,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C151" t="n">
         <v>36.6</v>
       </c>
-      <c r="C151" t="n">
-        <v>36.3</v>
-      </c>
       <c r="D151" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="E151" t="n">
         <v>36.6</v>
       </c>
-      <c r="E151" t="n">
-        <v>36.3</v>
-      </c>
       <c r="F151" t="n">
-        <v>38661.9219</v>
+        <v>30874.1597</v>
       </c>
       <c r="G151" t="n">
-        <v>36.44999999999999</v>
+        <v>36.76166666666663</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +5789,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,32 +5803,38 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C152" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="D152" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="E152" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="F152" t="n">
-        <v>9839.7793</v>
+        <v>38661.9219</v>
       </c>
       <c r="G152" t="n">
-        <v>36.39999999999999</v>
+        <v>36.76666666666663</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>36.6</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5718,22 +5844,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C153" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D153" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="E153" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F153" t="n">
-        <v>2314.7051</v>
+        <v>9839.7793</v>
       </c>
       <c r="G153" t="n">
-        <v>36.39999999999999</v>
+        <v>36.77166666666663</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +5869,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,32 +5883,38 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C154" t="n">
         <v>36.3</v>
       </c>
-      <c r="C154" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D154" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E154" t="n">
         <v>36.3</v>
       </c>
-      <c r="E154" t="n">
-        <v>36.2</v>
-      </c>
       <c r="F154" t="n">
-        <v>32985.1998</v>
+        <v>2314.7051</v>
       </c>
       <c r="G154" t="n">
-        <v>36.24999999999999</v>
+        <v>36.77499999999997</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,32 +5924,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="C155" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="D155" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="E155" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="F155" t="n">
-        <v>14</v>
+        <v>32985.1998</v>
       </c>
       <c r="G155" t="n">
-        <v>36.45</v>
+        <v>36.78166666666663</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>36.3</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5835,20 +5977,26 @@
         <v>36.7</v>
       </c>
       <c r="F156" t="n">
-        <v>49.6372</v>
+        <v>14</v>
       </c>
       <c r="G156" t="n">
-        <v>36.7</v>
+        <v>36.79333333333329</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>36.2</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,32 +6006,38 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C157" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D157" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E157" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F157" t="n">
-        <v>121.8743</v>
+        <v>49.6372</v>
       </c>
       <c r="G157" t="n">
-        <v>36.59999999999999</v>
+        <v>36.81333333333329</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>36.7</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6047,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C158" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D158" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="E158" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>121.8743</v>
       </c>
       <c r="G158" t="n">
-        <v>36.54999999999999</v>
+        <v>36.83833333333329</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +6072,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,32 +6086,38 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="C159" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D159" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E159" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F159" t="n">
-        <v>840.0096</v>
+        <v>14</v>
       </c>
       <c r="G159" t="n">
-        <v>36.49999999999999</v>
+        <v>36.86499999999996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>36.5</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5963,22 +6127,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C160" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="D160" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E160" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="F160" t="n">
-        <v>24401.548</v>
+        <v>840.0096</v>
       </c>
       <c r="G160" t="n">
-        <v>36.19999999999999</v>
+        <v>36.89166666666662</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6152,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +6166,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C161" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="D161" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E161" t="n">
-        <v>36.3</v>
+        <v>36</v>
       </c>
       <c r="F161" t="n">
-        <v>8623.7066</v>
+        <v>24401.548</v>
       </c>
       <c r="G161" t="n">
-        <v>36.19999999999999</v>
+        <v>36.90833333333329</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6191,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6036,19 +6208,19 @@
         <v>36.3</v>
       </c>
       <c r="C162" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D162" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E162" t="n">
         <v>36.3</v>
       </c>
-      <c r="E162" t="n">
-        <v>36.2</v>
-      </c>
       <c r="F162" t="n">
-        <v>3773</v>
+        <v>8623.7066</v>
       </c>
       <c r="G162" t="n">
-        <v>36.29999999999999</v>
+        <v>36.92499999999995</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,7 +6230,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6068,22 +6244,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C163" t="n">
         <v>36.2</v>
       </c>
-      <c r="C163" t="n">
-        <v>36</v>
-      </c>
       <c r="D163" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E163" t="n">
         <v>36.2</v>
       </c>
-      <c r="E163" t="n">
-        <v>36</v>
-      </c>
       <c r="F163" t="n">
-        <v>9380.711499999999</v>
+        <v>3773</v>
       </c>
       <c r="G163" t="n">
-        <v>36.09999999999999</v>
+        <v>36.92833333333328</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6093,7 +6269,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6103,22 +6283,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="C164" t="n">
         <v>36</v>
       </c>
       <c r="D164" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="E164" t="n">
         <v>36</v>
       </c>
       <c r="F164" t="n">
-        <v>5823.7847</v>
+        <v>9380.711499999999</v>
       </c>
       <c r="G164" t="n">
-        <v>35.99999999999999</v>
+        <v>36.92166666666662</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6128,7 +6308,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6322,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="C165" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D165" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E165" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="F165" t="n">
-        <v>1816.5433</v>
+        <v>5823.7847</v>
       </c>
       <c r="G165" t="n">
-        <v>35.89999999999999</v>
+        <v>36.91166666666662</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6163,7 +6347,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6173,7 +6361,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="C166" t="n">
         <v>35.8</v>
@@ -6182,13 +6370,13 @@
         <v>35.8</v>
       </c>
       <c r="E166" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F166" t="n">
-        <v>31082.4794</v>
+        <v>1816.5433</v>
       </c>
       <c r="G166" t="n">
-        <v>35.79999999999999</v>
+        <v>36.89833333333329</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6198,7 +6386,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6211,19 +6403,19 @@
         <v>35.7</v>
       </c>
       <c r="C167" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="D167" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="E167" t="n">
         <v>35.7</v>
       </c>
       <c r="F167" t="n">
-        <v>117.7562</v>
+        <v>31082.4794</v>
       </c>
       <c r="G167" t="n">
-        <v>35.74999999999999</v>
+        <v>36.8833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6233,7 +6425,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6255,10 +6451,10 @@
         <v>35.7</v>
       </c>
       <c r="F168" t="n">
-        <v>3433.3036</v>
+        <v>117.7562</v>
       </c>
       <c r="G168" t="n">
-        <v>35.7</v>
+        <v>36.8683333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6268,7 +6464,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6278,22 +6478,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="C169" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="D169" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="E169" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="F169" t="n">
-        <v>4506.1956</v>
+        <v>3433.3036</v>
       </c>
       <c r="G169" t="n">
-        <v>35.54999999999999</v>
+        <v>36.85333333333329</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6303,7 +6503,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6313,22 +6517,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="C170" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="D170" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="E170" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="F170" t="n">
-        <v>7258.4692</v>
+        <v>4506.1956</v>
       </c>
       <c r="G170" t="n">
-        <v>35.34999999999999</v>
+        <v>36.83333333333329</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6338,7 +6542,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6348,36 +6556,36 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="C171" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D171" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E171" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="F171" t="n">
-        <v>26484</v>
+        <v>7258.4692</v>
       </c>
       <c r="G171" t="n">
-        <v>35.39999999999999</v>
+        <v>36.8133333333333</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="K171" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="L171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6387,38 +6595,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="C172" t="n">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
       <c r="D172" t="n">
-        <v>36.3</v>
+        <v>35.5</v>
       </c>
       <c r="E172" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F172" t="n">
-        <v>188300.8874</v>
+        <v>26484</v>
       </c>
       <c r="G172" t="n">
-        <v>35.89999999999999</v>
+        <v>36.79666666666663</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="K172" t="n">
-        <v>35.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M172" t="n">
@@ -6430,38 +6634,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="C173" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="D173" t="n">
-        <v>35.9</v>
+        <v>36.3</v>
       </c>
       <c r="E173" t="n">
-        <v>35.9</v>
+        <v>35.6</v>
       </c>
       <c r="F173" t="n">
-        <v>136668.2278</v>
+        <v>188300.8874</v>
       </c>
       <c r="G173" t="n">
-        <v>36.09999999999999</v>
+        <v>36.79666666666663</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="K173" t="n">
-        <v>35.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M173" t="n">
@@ -6473,22 +6673,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="C174" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="D174" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="E174" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="F174" t="n">
-        <v>50000</v>
+        <v>136668.2278</v>
       </c>
       <c r="G174" t="n">
-        <v>35.8</v>
+        <v>36.79499999999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6498,7 +6698,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6508,22 +6712,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C175" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="D175" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E175" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="F175" t="n">
-        <v>14</v>
+        <v>50000</v>
       </c>
       <c r="G175" t="n">
-        <v>35.8</v>
+        <v>36.77666666666663</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6533,7 +6737,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6543,7 +6751,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="C176" t="n">
         <v>35.9</v>
@@ -6552,13 +6760,13 @@
         <v>35.9</v>
       </c>
       <c r="E176" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="F176" t="n">
-        <v>16767.1625</v>
+        <v>14</v>
       </c>
       <c r="G176" t="n">
-        <v>35.9</v>
+        <v>36.76499999999997</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6568,7 +6776,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6578,22 +6790,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="C177" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="D177" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="E177" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F177" t="n">
-        <v>979.6083</v>
+        <v>16767.1625</v>
       </c>
       <c r="G177" t="n">
-        <v>35.84999999999999</v>
+        <v>36.7533333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6603,7 +6815,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6625,10 +6841,10 @@
         <v>35.8</v>
       </c>
       <c r="F178" t="n">
-        <v>26000</v>
+        <v>979.6083</v>
       </c>
       <c r="G178" t="n">
-        <v>35.8</v>
+        <v>36.73833333333331</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6638,7 +6854,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6651,19 +6871,19 @@
         <v>35.8</v>
       </c>
       <c r="C179" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="D179" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="E179" t="n">
         <v>35.8</v>
       </c>
       <c r="F179" t="n">
-        <v>44381.1894</v>
+        <v>26000</v>
       </c>
       <c r="G179" t="n">
-        <v>35.95</v>
+        <v>36.71499999999998</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6673,7 +6893,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6683,36 +6907,36 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="C180" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="D180" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E180" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="F180" t="n">
-        <v>8062.8103</v>
+        <v>44381.1894</v>
       </c>
       <c r="G180" t="n">
-        <v>36.05</v>
+        <v>36.69999999999997</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="K180" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6722,38 +6946,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="C181" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="D181" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="E181" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="F181" t="n">
-        <v>1813.6167</v>
+        <v>8062.8103</v>
       </c>
       <c r="G181" t="n">
-        <v>35.89999999999999</v>
+        <v>36.67666666666664</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>36</v>
-      </c>
-      <c r="K181" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M181" t="n">
@@ -6777,10 +6997,10 @@
         <v>35.8</v>
       </c>
       <c r="F182" t="n">
-        <v>2243.8594</v>
+        <v>1813.6167</v>
       </c>
       <c r="G182" t="n">
-        <v>35.79999999999999</v>
+        <v>36.65166666666664</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6789,12 +7009,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M182" t="n">
@@ -6806,22 +7024,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C183" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="D183" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E183" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="F183" t="n">
-        <v>56</v>
+        <v>2243.8594</v>
       </c>
       <c r="G183" t="n">
-        <v>35.84999999999999</v>
+        <v>36.62499999999998</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6831,7 +7049,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6841,22 +7063,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="C184" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="D184" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="E184" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F184" t="n">
-        <v>120.1839</v>
+        <v>56</v>
       </c>
       <c r="G184" t="n">
-        <v>35.99999999999999</v>
+        <v>36.59666666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,7 +7088,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6876,22 +7102,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C185" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="D185" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="E185" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F185" t="n">
-        <v>7751.8194</v>
+        <v>120.1839</v>
       </c>
       <c r="G185" t="n">
-        <v>36.34999999999999</v>
+        <v>36.57166666666664</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6901,7 +7127,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6914,19 +7144,19 @@
         <v>36.2</v>
       </c>
       <c r="C186" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="D186" t="n">
-        <v>36.2</v>
+        <v>36.6</v>
       </c>
       <c r="E186" t="n">
         <v>36.2</v>
       </c>
       <c r="F186" t="n">
-        <v>940.7439000000001</v>
+        <v>7751.8194</v>
       </c>
       <c r="G186" t="n">
-        <v>36.39999999999999</v>
+        <v>36.55499999999998</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6936,7 +7166,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6949,33 +7183,31 @@
         <v>36.2</v>
       </c>
       <c r="C187" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="D187" t="n">
         <v>36.2</v>
       </c>
       <c r="E187" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F187" t="n">
-        <v>17107.1324</v>
+        <v>940.7439000000001</v>
       </c>
       <c r="G187" t="n">
-        <v>36.14999999999999</v>
+        <v>36.53499999999998</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -6987,22 +7219,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="C188" t="n">
         <v>36.1</v>
       </c>
       <c r="D188" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="E188" t="n">
         <v>36.1</v>
       </c>
       <c r="F188" t="n">
-        <v>20000</v>
+        <v>17107.1324</v>
       </c>
       <c r="G188" t="n">
-        <v>36.09999999999999</v>
+        <v>36.51499999999997</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7026,32 +7258,30 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C189" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="D189" t="n">
-        <v>36.6</v>
+        <v>36.1</v>
       </c>
       <c r="E189" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F189" t="n">
-        <v>655</v>
+        <v>20000</v>
       </c>
       <c r="G189" t="n">
-        <v>36.29999999999998</v>
+        <v>36.48999999999997</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>36.1</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
@@ -7067,32 +7297,30 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C190" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D190" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E190" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F190" t="n">
-        <v>14</v>
+        <v>655</v>
       </c>
       <c r="G190" t="n">
-        <v>36.44999999999999</v>
+        <v>36.4683333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>36.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
@@ -7108,32 +7336,30 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="C191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="D191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="E191" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="F191" t="n">
-        <v>9013.3251</v>
+        <v>14</v>
       </c>
       <c r="G191" t="n">
-        <v>36.24999999999999</v>
+        <v>36.44499999999996</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
@@ -7149,22 +7375,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="C192" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="D192" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="E192" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="F192" t="n">
-        <v>50943.9997</v>
+        <v>9013.3251</v>
       </c>
       <c r="G192" t="n">
-        <v>35.99999999999999</v>
+        <v>36.4183333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7188,22 +7414,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="C193" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="D193" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="E193" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F193" t="n">
-        <v>55</v>
+        <v>50943.9997</v>
       </c>
       <c r="G193" t="n">
-        <v>35.99999999999999</v>
+        <v>36.38833333333331</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7227,22 +7453,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="C194" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="D194" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="E194" t="n">
-        <v>36.7</v>
+        <v>36.1</v>
       </c>
       <c r="F194" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G194" t="n">
-        <v>36.39999999999999</v>
+        <v>36.36333333333331</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7266,22 +7492,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C195" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D195" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E195" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F195" t="n">
-        <v>6427</v>
+        <v>100</v>
       </c>
       <c r="G195" t="n">
-        <v>36.74999999999999</v>
+        <v>36.34999999999997</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7305,22 +7531,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C196" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D196" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E196" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F196" t="n">
-        <v>243.4821</v>
+        <v>6427</v>
       </c>
       <c r="G196" t="n">
-        <v>36.84999999999999</v>
+        <v>36.34499999999998</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7344,22 +7570,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="C197" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="D197" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="E197" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F197" t="n">
-        <v>45575.4112</v>
+        <v>243.4821</v>
       </c>
       <c r="G197" t="n">
-        <v>36.99999999999999</v>
+        <v>36.33999999999998</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7383,22 +7609,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="C198" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D198" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E198" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="F198" t="n">
-        <v>21929.5741</v>
+        <v>45575.4112</v>
       </c>
       <c r="G198" t="n">
-        <v>36.99999999999999</v>
+        <v>36.33666666666664</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7422,22 +7648,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="C199" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D199" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="E199" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="F199" t="n">
-        <v>1636.5434</v>
+        <v>21929.5741</v>
       </c>
       <c r="G199" t="n">
-        <v>36.84999999999998</v>
+        <v>36.33333333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7461,22 +7687,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C200" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D200" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E200" t="n">
         <v>36.6</v>
       </c>
       <c r="F200" t="n">
-        <v>5589.3321</v>
+        <v>1636.5434</v>
       </c>
       <c r="G200" t="n">
-        <v>36.69999999999997</v>
+        <v>36.32999999999998</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7500,22 +7726,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C201" t="n">
         <v>36.6</v>
       </c>
       <c r="D201" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E201" t="n">
         <v>36.6</v>
       </c>
       <c r="F201" t="n">
-        <v>3573.0916</v>
+        <v>5589.3321</v>
       </c>
       <c r="G201" t="n">
-        <v>36.59999999999997</v>
+        <v>36.31999999999998</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7539,22 +7765,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="C202" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D202" t="n">
-        <v>36.4</v>
+        <v>36.7</v>
       </c>
       <c r="E202" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F202" t="n">
-        <v>84</v>
+        <v>3573.0916</v>
       </c>
       <c r="G202" t="n">
-        <v>36.49999999999997</v>
+        <v>36.30999999999998</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7581,19 +7807,19 @@
         <v>36.4</v>
       </c>
       <c r="C203" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D203" t="n">
         <v>36.4</v>
       </c>
       <c r="E203" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F203" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G203" t="n">
-        <v>36.34999999999997</v>
+        <v>36.29666666666665</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7629,10 +7855,10 @@
         <v>36.3</v>
       </c>
       <c r="F204" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G204" t="n">
-        <v>36.29999999999997</v>
+        <v>36.28166666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7656,22 +7882,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C205" t="n">
         <v>36.3</v>
       </c>
       <c r="D205" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E205" t="n">
         <v>36.3</v>
       </c>
       <c r="F205" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G205" t="n">
-        <v>36.29999999999997</v>
+        <v>36.26833333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7707,10 +7933,10 @@
         <v>36.3</v>
       </c>
       <c r="F206" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G206" t="n">
-        <v>36.29999999999997</v>
+        <v>36.25333333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7737,19 +7963,19 @@
         <v>36.3</v>
       </c>
       <c r="C207" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="D207" t="n">
         <v>36.3</v>
       </c>
       <c r="E207" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="F207" t="n">
-        <v>3029.4714</v>
+        <v>56</v>
       </c>
       <c r="G207" t="n">
-        <v>36.19999999999997</v>
+        <v>36.23833333333334</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7773,22 +7999,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C208" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="D208" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E208" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="F208" t="n">
-        <v>56</v>
+        <v>3029.4714</v>
       </c>
       <c r="G208" t="n">
-        <v>36.24999999999996</v>
+        <v>36.22166666666668</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7818,16 +8044,16 @@
         <v>36.4</v>
       </c>
       <c r="D209" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="E209" t="n">
         <v>36.4</v>
       </c>
       <c r="F209" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G209" t="n">
-        <v>36.39999999999996</v>
+        <v>36.21333333333335</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7851,22 +8077,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C210" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="D210" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E210" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F210" t="n">
-        <v>220.1464</v>
+        <v>84</v>
       </c>
       <c r="G210" t="n">
-        <v>36.34999999999997</v>
+        <v>36.20833333333335</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7890,22 +8116,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C211" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D211" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E211" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F211" t="n">
-        <v>37.3382</v>
+        <v>220.1464</v>
       </c>
       <c r="G211" t="n">
-        <v>36.24999999999997</v>
+        <v>36.20333333333335</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7941,10 +8167,10 @@
         <v>36.2</v>
       </c>
       <c r="F212" t="n">
-        <v>12385.2106</v>
+        <v>37.3382</v>
       </c>
       <c r="G212" t="n">
-        <v>36.19999999999997</v>
+        <v>36.20166666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7971,19 +8197,19 @@
         <v>36.2</v>
       </c>
       <c r="C213" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D213" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E213" t="n">
         <v>36.2</v>
       </c>
       <c r="F213" t="n">
-        <v>9421.560799999999</v>
+        <v>12385.2106</v>
       </c>
       <c r="G213" t="n">
-        <v>36.24999999999997</v>
+        <v>36.19666666666668</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8007,22 +8233,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C214" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D214" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E214" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F214" t="n">
         <v>9421.560799999999</v>
       </c>
       <c r="G214" t="n">
-        <v>36.34999999999997</v>
+        <v>36.19666666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8046,22 +8272,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="C215" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="D215" t="n">
-        <v>37</v>
+        <v>36.4</v>
       </c>
       <c r="E215" t="n">
-        <v>36.9</v>
+        <v>36.4</v>
       </c>
       <c r="F215" t="n">
-        <v>78716.9797</v>
+        <v>9421.560799999999</v>
       </c>
       <c r="G215" t="n">
-        <v>36.69999999999997</v>
+        <v>36.20000000000002</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8085,22 +8311,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C216" t="n">
         <v>37</v>
       </c>
-      <c r="C216" t="n">
-        <v>37.2</v>
-      </c>
       <c r="D216" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="E216" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F216" t="n">
-        <v>43360.5226</v>
+        <v>78716.9797</v>
       </c>
       <c r="G216" t="n">
-        <v>37.09999999999998</v>
+        <v>36.20500000000002</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8124,22 +8350,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="C217" t="n">
         <v>37.2</v>
       </c>
       <c r="D217" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E217" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F217" t="n">
-        <v>8182.404</v>
+        <v>43360.5226</v>
       </c>
       <c r="G217" t="n">
-        <v>37.19999999999998</v>
+        <v>36.21333333333335</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8163,22 +8389,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="C218" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="D218" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="E218" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F218" t="n">
-        <v>7964.2858</v>
+        <v>8182.404</v>
       </c>
       <c r="G218" t="n">
-        <v>37.29999999999998</v>
+        <v>36.22500000000002</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8205,19 +8431,19 @@
         <v>37.4</v>
       </c>
       <c r="C219" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="D219" t="n">
         <v>37.4</v>
       </c>
       <c r="E219" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="F219" t="n">
-        <v>13887.8869</v>
+        <v>7964.2858</v>
       </c>
       <c r="G219" t="n">
-        <v>37.34999999999997</v>
+        <v>36.23833333333335</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8244,19 +8470,19 @@
         <v>37.4</v>
       </c>
       <c r="C220" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="D220" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="E220" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="F220" t="n">
-        <v>209246.8709</v>
+        <v>13887.8869</v>
       </c>
       <c r="G220" t="n">
-        <v>37.19999999999997</v>
+        <v>36.25333333333335</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8280,22 +8506,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="C221" t="n">
         <v>37.1</v>
       </c>
       <c r="D221" t="n">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="E221" t="n">
         <v>37.1</v>
       </c>
       <c r="F221" t="n">
-        <v>3228.6917</v>
+        <v>209246.8709</v>
       </c>
       <c r="G221" t="n">
-        <v>37.09999999999997</v>
+        <v>36.27166666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8331,10 +8557,10 @@
         <v>37.1</v>
       </c>
       <c r="F222" t="n">
-        <v>8787.1517</v>
+        <v>3228.6917</v>
       </c>
       <c r="G222" t="n">
-        <v>37.09999999999998</v>
+        <v>36.28333333333335</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8358,22 +8584,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="C223" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="D223" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="E223" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F223" t="n">
-        <v>37567.5455</v>
+        <v>8787.1517</v>
       </c>
       <c r="G223" t="n">
-        <v>37.04999999999998</v>
+        <v>36.29833333333335</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8397,22 +8623,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="C224" t="n">
         <v>37</v>
       </c>
-      <c r="C224" t="n">
-        <v>36.9</v>
-      </c>
       <c r="D224" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="E224" t="n">
         <v>37</v>
       </c>
-      <c r="E224" t="n">
-        <v>36.9</v>
-      </c>
       <c r="F224" t="n">
-        <v>2910.8018</v>
+        <v>37567.5455</v>
       </c>
       <c r="G224" t="n">
-        <v>36.94999999999999</v>
+        <v>36.31500000000002</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8436,22 +8662,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C225" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="D225" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E225" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="F225" t="n">
-        <v>1906.3199</v>
+        <v>2910.8018</v>
       </c>
       <c r="G225" t="n">
-        <v>36.99999999999999</v>
+        <v>36.33000000000002</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8475,22 +8701,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="C226" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="D226" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="E226" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="F226" t="n">
-        <v>55596.0716</v>
+        <v>1906.3199</v>
       </c>
       <c r="G226" t="n">
-        <v>37.19999999999999</v>
+        <v>36.35166666666668</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8517,19 +8743,19 @@
         <v>37.3</v>
       </c>
       <c r="C227" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="D227" t="n">
         <v>37.3</v>
       </c>
       <c r="E227" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="F227" t="n">
-        <v>4661.6369</v>
+        <v>55596.0716</v>
       </c>
       <c r="G227" t="n">
-        <v>37.14999999999999</v>
+        <v>36.37666666666668</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8553,22 +8779,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="C228" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="D228" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="E228" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F228" t="n">
-        <v>2500</v>
+        <v>4661.6369</v>
       </c>
       <c r="G228" t="n">
-        <v>36.79999999999999</v>
+        <v>36.39833333333335</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8592,22 +8818,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C229" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="D229" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E229" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="F229" t="n">
-        <v>107.4864</v>
+        <v>2500</v>
       </c>
       <c r="G229" t="n">
-        <v>36.79999999999999</v>
+        <v>36.41333333333335</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8631,22 +8857,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="C230" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="D230" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="E230" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="F230" t="n">
-        <v>112.4181</v>
+        <v>107.4864</v>
       </c>
       <c r="G230" t="n">
-        <v>36.89999999999999</v>
+        <v>36.44000000000002</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8670,22 +8896,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C231" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D231" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E231" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F231" t="n">
-        <v>5486.9082</v>
+        <v>112.4181</v>
       </c>
       <c r="G231" t="n">
-        <v>36.84999999999999</v>
+        <v>36.46500000000002</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8709,22 +8935,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C232" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D232" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E232" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F232" t="n">
-        <v>22682.7399</v>
+        <v>5486.9082</v>
       </c>
       <c r="G232" t="n">
-        <v>36.95</v>
+        <v>36.48833333333335</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8748,22 +8974,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="C233" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="D233" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="E233" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F233" t="n">
-        <v>3996.618</v>
+        <v>22682.7399</v>
       </c>
       <c r="G233" t="n">
-        <v>37.09999999999999</v>
+        <v>36.50000000000001</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8790,19 +9016,19 @@
         <v>37.2</v>
       </c>
       <c r="C234" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D234" t="n">
         <v>37.2</v>
       </c>
       <c r="E234" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="F234" t="n">
-        <v>30126.0335</v>
+        <v>3996.618</v>
       </c>
       <c r="G234" t="n">
-        <v>37.09999999999999</v>
+        <v>36.52166666666668</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8826,22 +9052,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="C235" t="n">
         <v>37</v>
       </c>
       <c r="D235" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E235" t="n">
         <v>37</v>
       </c>
       <c r="F235" t="n">
-        <v>500</v>
+        <v>30126.0335</v>
       </c>
       <c r="G235" t="n">
-        <v>36.99999999999999</v>
+        <v>36.54333333333334</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8865,22 +9091,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="C236" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="D236" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="E236" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="F236" t="n">
-        <v>275.4978</v>
+        <v>500</v>
       </c>
       <c r="G236" t="n">
-        <v>37.05</v>
+        <v>36.56166666666668</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8904,22 +9130,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="C237" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="D237" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="E237" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="F237" t="n">
-        <v>2972.2961</v>
+        <v>275.4978</v>
       </c>
       <c r="G237" t="n">
-        <v>37.05</v>
+        <v>36.58166666666668</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8949,16 +9175,16 @@
         <v>37</v>
       </c>
       <c r="D238" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="E238" t="n">
         <v>37</v>
       </c>
       <c r="F238" t="n">
-        <v>6534.5014</v>
+        <v>2972.2961</v>
       </c>
       <c r="G238" t="n">
-        <v>37</v>
+        <v>36.60166666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8982,22 +9208,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C239" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="D239" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E239" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="F239" t="n">
-        <v>45298.4614</v>
+        <v>6534.5014</v>
       </c>
       <c r="G239" t="n">
-        <v>36.9</v>
+        <v>36.62166666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9021,22 +9247,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="C240" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="D240" t="n">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
       <c r="E240" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="F240" t="n">
-        <v>1493.2037</v>
+        <v>45298.4614</v>
       </c>
       <c r="G240" t="n">
-        <v>37</v>
+        <v>36.63333333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9060,22 +9286,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="C241" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="D241" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E241" t="n">
-        <v>37</v>
+        <v>37.2</v>
       </c>
       <c r="F241" t="n">
-        <v>12559.3498</v>
+        <v>1493.2037</v>
       </c>
       <c r="G241" t="n">
-        <v>37.1</v>
+        <v>36.65333333333334</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9099,22 +9325,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="C242" t="n">
         <v>37</v>
       </c>
       <c r="D242" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="E242" t="n">
         <v>37</v>
       </c>
       <c r="F242" t="n">
-        <v>14</v>
+        <v>12559.3498</v>
       </c>
       <c r="G242" t="n">
-        <v>37</v>
+        <v>36.67333333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9138,22 +9364,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="C243" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="D243" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="E243" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="F243" t="n">
-        <v>221.9115</v>
+        <v>14</v>
       </c>
       <c r="G243" t="n">
-        <v>37.1</v>
+        <v>36.69333333333334</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9177,22 +9403,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="C244" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="D244" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="E244" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="F244" t="n">
-        <v>16606.1559</v>
+        <v>221.9115</v>
       </c>
       <c r="G244" t="n">
-        <v>37.25</v>
+        <v>36.715</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9216,22 +9442,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="C245" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="D245" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="E245" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="F245" t="n">
-        <v>13792.3969</v>
+        <v>16606.1559</v>
       </c>
       <c r="G245" t="n">
-        <v>37.5</v>
+        <v>36.735</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9255,22 +9481,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="C246" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="D246" t="n">
         <v>37.7</v>
       </c>
       <c r="E246" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="F246" t="n">
-        <v>44505.3308</v>
+        <v>13792.3969</v>
       </c>
       <c r="G246" t="n">
-        <v>37.6</v>
+        <v>36.75333333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9294,22 +9520,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C247" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="D247" t="n">
         <v>37.7</v>
       </c>
-      <c r="C247" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="D247" t="n">
-        <v>38</v>
-      </c>
       <c r="E247" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="F247" t="n">
-        <v>86266.33130000001</v>
+        <v>44505.3308</v>
       </c>
       <c r="G247" t="n">
-        <v>37.55</v>
+        <v>36.775</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9333,22 +9559,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="C248" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="D248" t="n">
         <v>38</v>
       </c>
       <c r="E248" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="F248" t="n">
-        <v>91753.10980000001</v>
+        <v>86266.33130000001</v>
       </c>
       <c r="G248" t="n">
-        <v>37.65000000000001</v>
+        <v>36.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9372,22 +9598,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="C249" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="D249" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="E249" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="F249" t="n">
-        <v>24318.2773</v>
+        <v>91753.10980000001</v>
       </c>
       <c r="G249" t="n">
-        <v>37.80000000000001</v>
+        <v>36.82666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9411,7 +9637,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="C250" t="n">
         <v>37.9</v>
@@ -9420,13 +9646,13 @@
         <v>37.9</v>
       </c>
       <c r="E250" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="F250" t="n">
-        <v>42087.556</v>
+        <v>24318.2773</v>
       </c>
       <c r="G250" t="n">
-        <v>37.90000000000001</v>
+        <v>36.85</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9453,19 +9679,19 @@
         <v>37.9</v>
       </c>
       <c r="C251" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="D251" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="E251" t="n">
         <v>37.9</v>
       </c>
       <c r="F251" t="n">
-        <v>103968.5825</v>
+        <v>42087.556</v>
       </c>
       <c r="G251" t="n">
-        <v>37.95000000000002</v>
+        <v>36.875</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9489,22 +9715,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C252" t="n">
         <v>38</v>
-      </c>
-      <c r="C252" t="n">
-        <v>38.2</v>
       </c>
       <c r="D252" t="n">
         <v>38.2</v>
       </c>
       <c r="E252" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="F252" t="n">
-        <v>573.3390000000001</v>
+        <v>103968.5825</v>
       </c>
       <c r="G252" t="n">
-        <v>38.10000000000002</v>
+        <v>36.90666666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9528,22 +9754,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>38</v>
+      </c>
+      <c r="C253" t="n">
         <v>38.2</v>
       </c>
-      <c r="C253" t="n">
-        <v>38.5</v>
-      </c>
       <c r="D253" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="E253" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="F253" t="n">
-        <v>75728.26700000001</v>
+        <v>573.3390000000001</v>
       </c>
       <c r="G253" t="n">
-        <v>38.35000000000002</v>
+        <v>36.945</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9567,22 +9793,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="C254" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="D254" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="E254" t="n">
-        <v>38.6</v>
+        <v>38.2</v>
       </c>
       <c r="F254" t="n">
-        <v>67129.148</v>
+        <v>75728.26700000001</v>
       </c>
       <c r="G254" t="n">
-        <v>38.55000000000002</v>
+        <v>36.985</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9606,22 +9832,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="C255" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="D255" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="E255" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="F255" t="n">
-        <v>3104.0392</v>
+        <v>67129.148</v>
       </c>
       <c r="G255" t="n">
-        <v>38.65000000000002</v>
+        <v>37.01666666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9645,22 +9871,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="C256" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="D256" t="n">
         <v>38.8</v>
       </c>
       <c r="E256" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="F256" t="n">
-        <v>84654.7369</v>
+        <v>3104.0392</v>
       </c>
       <c r="G256" t="n">
-        <v>38.75000000000001</v>
+        <v>37.04833333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9684,22 +9910,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C257" t="n">
         <v>38.8</v>
       </c>
-      <c r="C257" t="n">
-        <v>38.7</v>
-      </c>
       <c r="D257" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="E257" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="F257" t="n">
-        <v>168757.0289</v>
+        <v>84654.7369</v>
       </c>
       <c r="G257" t="n">
-        <v>38.75000000000001</v>
+        <v>37.08</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9723,22 +9949,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="C258" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="D258" t="n">
         <v>39</v>
       </c>
       <c r="E258" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="F258" t="n">
-        <v>968.1816</v>
+        <v>168757.0289</v>
       </c>
       <c r="G258" t="n">
-        <v>38.85000000000002</v>
+        <v>37.10666666666666</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9762,10 +9988,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="C259" t="n">
         <v>39</v>
-      </c>
-      <c r="C259" t="n">
-        <v>38.6</v>
       </c>
       <c r="D259" t="n">
         <v>39</v>
@@ -9774,10 +10000,10 @@
         <v>38.6</v>
       </c>
       <c r="F259" t="n">
-        <v>66981.57709999999</v>
+        <v>968.1816</v>
       </c>
       <c r="G259" t="n">
-        <v>38.80000000000002</v>
+        <v>37.14166666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9801,22 +10027,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="C260" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="D260" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="E260" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="F260" t="n">
-        <v>16</v>
+        <v>66981.57709999999</v>
       </c>
       <c r="G260" t="n">
-        <v>38.70000000000002</v>
+        <v>37.17166666666665</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9843,19 +10069,19 @@
         <v>38.8</v>
       </c>
       <c r="C261" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="D261" t="n">
         <v>38.8</v>
       </c>
       <c r="E261" t="n">
-        <v>38.5</v>
+        <v>38.8</v>
       </c>
       <c r="F261" t="n">
-        <v>32246.7796</v>
+        <v>16</v>
       </c>
       <c r="G261" t="n">
-        <v>38.75000000000001</v>
+        <v>37.20833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9888,13 +10114,13 @@
         <v>38.8</v>
       </c>
       <c r="E262" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="F262" t="n">
-        <v>19098.7848</v>
+        <v>32246.7796</v>
       </c>
       <c r="G262" t="n">
-        <v>38.70000000000002</v>
+        <v>37.24333333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9918,22 +10144,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="C263" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D263" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="E263" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="F263" t="n">
-        <v>161795.6959</v>
+        <v>19098.7848</v>
       </c>
       <c r="G263" t="n">
-        <v>38.80000000000002</v>
+        <v>37.28166666666665</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9960,19 +10186,19 @@
         <v>38.9</v>
       </c>
       <c r="C264" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D264" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="E264" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="F264" t="n">
-        <v>10624.1899</v>
+        <v>161795.6959</v>
       </c>
       <c r="G264" t="n">
-        <v>38.80000000000002</v>
+        <v>37.32499999999998</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9996,22 +10222,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="C265" t="n">
         <v>38.7</v>
       </c>
       <c r="D265" t="n">
-        <v>38.7</v>
+        <v>39.1</v>
       </c>
       <c r="E265" t="n">
         <v>38.7</v>
       </c>
       <c r="F265" t="n">
-        <v>1000</v>
+        <v>10624.1899</v>
       </c>
       <c r="G265" t="n">
-        <v>38.70000000000002</v>
+        <v>37.36499999999998</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10038,19 +10264,19 @@
         <v>38.7</v>
       </c>
       <c r="C266" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="D266" t="n">
         <v>38.7</v>
       </c>
       <c r="E266" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="F266" t="n">
-        <v>32095.4631</v>
+        <v>1000</v>
       </c>
       <c r="G266" t="n">
-        <v>38.65000000000001</v>
+        <v>37.40499999999997</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10074,7 +10300,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="C267" t="n">
         <v>38.6</v>
@@ -10086,10 +10312,10 @@
         <v>38.6</v>
       </c>
       <c r="F267" t="n">
-        <v>27517.2602</v>
+        <v>32095.4631</v>
       </c>
       <c r="G267" t="n">
-        <v>38.60000000000002</v>
+        <v>37.4433333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10116,19 +10342,19 @@
         <v>38.6</v>
       </c>
       <c r="C268" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="D268" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="E268" t="n">
         <v>38.6</v>
       </c>
-      <c r="E268" t="n">
-        <v>38.4</v>
-      </c>
       <c r="F268" t="n">
-        <v>7256.858</v>
+        <v>27517.2602</v>
       </c>
       <c r="G268" t="n">
-        <v>38.50000000000001</v>
+        <v>37.48499999999997</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10152,22 +10378,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="C269" t="n">
         <v>38.4</v>
       </c>
       <c r="D269" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="E269" t="n">
         <v>38.4</v>
       </c>
       <c r="F269" t="n">
-        <v>6238.5623</v>
+        <v>7256.858</v>
       </c>
       <c r="G269" t="n">
-        <v>38.40000000000002</v>
+        <v>37.5183333333333</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10191,7 +10417,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C270" t="n">
         <v>38.4</v>
@@ -10203,10 +10429,10 @@
         <v>38.4</v>
       </c>
       <c r="F270" t="n">
-        <v>7762.9633</v>
+        <v>6238.5623</v>
       </c>
       <c r="G270" t="n">
-        <v>38.40000000000002</v>
+        <v>37.55166666666663</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10230,22 +10456,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C271" t="n">
         <v>38.4</v>
       </c>
-      <c r="C271" t="n">
-        <v>38.3</v>
-      </c>
       <c r="D271" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E271" t="n">
         <v>38.4</v>
       </c>
-      <c r="E271" t="n">
-        <v>38.3</v>
-      </c>
       <c r="F271" t="n">
-        <v>509.5744</v>
+        <v>7762.9633</v>
       </c>
       <c r="G271" t="n">
-        <v>38.35000000000002</v>
+        <v>37.58666666666663</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10272,19 +10498,19 @@
         <v>38.4</v>
       </c>
       <c r="C272" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D272" t="n">
         <v>38.4</v>
       </c>
       <c r="E272" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="F272" t="n">
-        <v>6146.2604</v>
+        <v>509.5744</v>
       </c>
       <c r="G272" t="n">
-        <v>38.25000000000003</v>
+        <v>37.62166666666664</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10308,22 +10534,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="C273" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="D273" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="E273" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="F273" t="n">
-        <v>3114.6501</v>
+        <v>6146.2604</v>
       </c>
       <c r="G273" t="n">
-        <v>38.25000000000003</v>
+        <v>37.65499999999997</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10347,22 +10573,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="C274" t="n">
         <v>38.3</v>
       </c>
       <c r="D274" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="E274" t="n">
         <v>38.3</v>
       </c>
       <c r="F274" t="n">
-        <v>2391.3531</v>
+        <v>3114.6501</v>
       </c>
       <c r="G274" t="n">
-        <v>38.30000000000003</v>
+        <v>37.6883333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10389,19 +10615,19 @@
         <v>38.3</v>
       </c>
       <c r="C275" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="D275" t="n">
         <v>38.3</v>
       </c>
       <c r="E275" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="F275" t="n">
-        <v>109732.4793</v>
+        <v>2391.3531</v>
       </c>
       <c r="G275" t="n">
-        <v>38.25000000000003</v>
+        <v>37.71999999999998</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10425,22 +10651,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="C276" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="D276" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="E276" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="F276" t="n">
-        <v>2606.8173</v>
+        <v>109732.4793</v>
       </c>
       <c r="G276" t="n">
-        <v>38.30000000000003</v>
+        <v>37.73999999999997</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10476,10 +10702,10 @@
         <v>38.4</v>
       </c>
       <c r="F277" t="n">
-        <v>2964.7423</v>
+        <v>2606.8173</v>
       </c>
       <c r="G277" t="n">
-        <v>38.40000000000003</v>
+        <v>37.75999999999998</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10503,22 +10729,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="C278" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="D278" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="E278" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="F278" t="n">
-        <v>2406.5809</v>
+        <v>2964.7423</v>
       </c>
       <c r="G278" t="n">
-        <v>38.25000000000003</v>
+        <v>37.77999999999998</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10545,19 +10771,19 @@
         <v>38.1</v>
       </c>
       <c r="C279" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D279" t="n">
         <v>38.1</v>
       </c>
       <c r="E279" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F279" t="n">
-        <v>8492.5532</v>
+        <v>2406.5809</v>
       </c>
       <c r="G279" t="n">
-        <v>38.05000000000003</v>
+        <v>37.79166666666664</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10584,19 +10810,19 @@
         <v>38.1</v>
       </c>
       <c r="C280" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="D280" t="n">
         <v>38.1</v>
       </c>
       <c r="E280" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F280" t="n">
-        <v>7449.8578</v>
+        <v>8492.5532</v>
       </c>
       <c r="G280" t="n">
-        <v>38.05000000000003</v>
+        <v>37.80333333333331</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10623,19 +10849,19 @@
         <v>38.1</v>
       </c>
       <c r="C281" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D281" t="n">
         <v>38.1</v>
       </c>
       <c r="E281" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="F281" t="n">
-        <v>24298.4664</v>
+        <v>7449.8578</v>
       </c>
       <c r="G281" t="n">
-        <v>38.05000000000003</v>
+        <v>37.81999999999997</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10662,19 +10888,19 @@
         <v>38.1</v>
       </c>
       <c r="C282" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="D282" t="n">
         <v>38.1</v>
       </c>
       <c r="E282" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="F282" t="n">
-        <v>468.75</v>
+        <v>24298.4664</v>
       </c>
       <c r="G282" t="n">
-        <v>38.05000000000003</v>
+        <v>37.83499999999997</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10710,10 +10936,10 @@
         <v>38.1</v>
       </c>
       <c r="F283" t="n">
-        <v>1093.2276</v>
+        <v>468.75</v>
       </c>
       <c r="G283" t="n">
-        <v>38.10000000000002</v>
+        <v>37.85166666666665</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10749,10 +10975,10 @@
         <v>38.1</v>
       </c>
       <c r="F284" t="n">
-        <v>2688.5698</v>
+        <v>1093.2276</v>
       </c>
       <c r="G284" t="n">
-        <v>38.10000000000002</v>
+        <v>37.86999999999998</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10776,22 +11002,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="C285" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="D285" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="E285" t="n">
-        <v>37.9</v>
+        <v>38.1</v>
       </c>
       <c r="F285" t="n">
-        <v>2939.5619</v>
+        <v>2688.5698</v>
       </c>
       <c r="G285" t="n">
-        <v>38.00000000000003</v>
+        <v>37.88999999999997</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10815,22 +11041,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>38</v>
+      </c>
+      <c r="C286" t="n">
         <v>37.9</v>
       </c>
-      <c r="C286" t="n">
-        <v>37.5</v>
-      </c>
       <c r="D286" t="n">
+        <v>38</v>
+      </c>
+      <c r="E286" t="n">
         <v>37.9</v>
       </c>
-      <c r="E286" t="n">
-        <v>37.5</v>
-      </c>
       <c r="F286" t="n">
-        <v>2322.7809</v>
+        <v>2939.5619</v>
       </c>
       <c r="G286" t="n">
-        <v>37.70000000000003</v>
+        <v>37.90333333333331</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10854,22 +11080,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C287" t="n">
         <v>37.5</v>
       </c>
-      <c r="C287" t="n">
-        <v>37.3</v>
-      </c>
       <c r="D287" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="E287" t="n">
         <v>37.5</v>
       </c>
-      <c r="E287" t="n">
-        <v>37.3</v>
-      </c>
       <c r="F287" t="n">
-        <v>52747.5655</v>
+        <v>2322.7809</v>
       </c>
       <c r="G287" t="n">
-        <v>37.40000000000003</v>
+        <v>37.90666666666664</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10893,22 +11119,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C288" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="D288" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="E288" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="F288" t="n">
-        <v>1083.2392</v>
+        <v>52747.5655</v>
       </c>
       <c r="G288" t="n">
-        <v>37.35000000000004</v>
+        <v>37.91166666666664</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10944,10 +11170,10 @@
         <v>37.4</v>
       </c>
       <c r="F289" t="n">
-        <v>865.2444</v>
+        <v>1083.2392</v>
       </c>
       <c r="G289" t="n">
-        <v>37.40000000000004</v>
+        <v>37.92499999999998</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10983,10 +11209,10 @@
         <v>37.4</v>
       </c>
       <c r="F290" t="n">
-        <v>3292.1242</v>
+        <v>865.2444</v>
       </c>
       <c r="G290" t="n">
-        <v>37.40000000000003</v>
+        <v>37.93166666666664</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11013,19 +11239,19 @@
         <v>37.4</v>
       </c>
       <c r="C291" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="D291" t="n">
-        <v>37.8</v>
+        <v>37.4</v>
       </c>
       <c r="E291" t="n">
         <v>37.4</v>
       </c>
       <c r="F291" t="n">
-        <v>98400.7101</v>
+        <v>3292.1242</v>
       </c>
       <c r="G291" t="n">
-        <v>37.60000000000004</v>
+        <v>37.94166666666664</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11049,22 +11275,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="C292" t="n">
-        <v>37.4</v>
+        <v>37.8</v>
       </c>
       <c r="D292" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="E292" t="n">
         <v>37.4</v>
       </c>
       <c r="F292" t="n">
-        <v>47433.4522</v>
+        <v>98400.7101</v>
       </c>
       <c r="G292" t="n">
-        <v>37.60000000000004</v>
+        <v>37.95666666666664</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11091,19 +11317,19 @@
         <v>37.5</v>
       </c>
       <c r="C293" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="D293" t="n">
         <v>37.5</v>
       </c>
       <c r="E293" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="F293" t="n">
-        <v>124780.4062</v>
+        <v>47433.4522</v>
       </c>
       <c r="G293" t="n">
-        <v>37.30000000000004</v>
+        <v>37.96333333333332</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11127,22 +11353,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C294" t="n">
-        <v>37.7</v>
+        <v>37.2</v>
       </c>
       <c r="D294" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="E294" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="F294" t="n">
-        <v>216.5936</v>
+        <v>124780.4062</v>
       </c>
       <c r="G294" t="n">
-        <v>37.45000000000005</v>
+        <v>37.96333333333332</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11166,7 +11392,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="C295" t="n">
         <v>37.7</v>
@@ -11175,13 +11401,13 @@
         <v>37.7</v>
       </c>
       <c r="E295" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="F295" t="n">
-        <v>67.366</v>
+        <v>216.5936</v>
       </c>
       <c r="G295" t="n">
-        <v>37.70000000000005</v>
+        <v>37.97499999999998</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11217,10 +11443,10 @@
         <v>37.7</v>
       </c>
       <c r="F296" t="n">
-        <v>6849.4352</v>
+        <v>67.366</v>
       </c>
       <c r="G296" t="n">
-        <v>37.70000000000005</v>
+        <v>37.98666666666664</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11244,22 +11470,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="C297" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="D297" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="E297" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="F297" t="n">
-        <v>224.0086</v>
+        <v>6849.4352</v>
       </c>
       <c r="G297" t="n">
-        <v>37.60000000000004</v>
+        <v>37.99666666666664</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11286,19 +11512,19 @@
         <v>37.5</v>
       </c>
       <c r="C298" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="D298" t="n">
         <v>37.5</v>
       </c>
       <c r="E298" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="F298" t="n">
-        <v>44476.3308</v>
+        <v>224.0086</v>
       </c>
       <c r="G298" t="n">
-        <v>37.45000000000004</v>
+        <v>38.00499999999997</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11314,6 +11540,45 @@
         </is>
       </c>
       <c r="M298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C299" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="D299" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E299" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F299" t="n">
+        <v>44476.3308</v>
+      </c>
+      <c r="G299" t="n">
+        <v>38.01166666666664</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M299" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N367"/>
+  <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,21 @@
         <v>-608341.753252239</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1612,21 @@
         <v>-608841.753252239</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>31.9</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,22 +1651,21 @@
         <v>-608841.753252239</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
         <v>31.8</v>
       </c>
-      <c r="K38" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1792,26 +1690,19 @@
         <v>-610873.7269522389</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K39" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1836,26 +1727,21 @@
         <v>-610973.7269522389</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>31.7</v>
       </c>
-      <c r="K40" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,26 +1766,21 @@
         <v>-679740.638252239</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
         <v>31.6</v>
       </c>
-      <c r="K41" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1924,26 +1805,21 @@
         <v>-679740.638252239</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
         <v>31.4</v>
       </c>
-      <c r="K42" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1968,26 +1844,21 @@
         <v>-671155.491152239</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
         <v>31.4</v>
       </c>
-      <c r="K43" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2012,26 +1883,21 @@
         <v>-671139.491152239</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
         <v>31.5</v>
       </c>
-      <c r="K44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2056,26 +1922,21 @@
         <v>-550884.782952239</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
         <v>31.9</v>
       </c>
-      <c r="K45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2100,26 +1961,21 @@
         <v>-601961.874052239</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
         <v>32.1</v>
       </c>
-      <c r="K46" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2144,26 +2000,21 @@
         <v>-601895.874052239</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
         <v>31.9</v>
       </c>
-      <c r="K47" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2188,26 +2039,21 @@
         <v>-601895.874052239</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
         <v>32.3</v>
       </c>
-      <c r="K48" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2232,26 +2078,19 @@
         <v>-603075.001052239</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2276,24 +2115,21 @@
         <v>-603075.001052239</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2318,24 +2154,21 @@
         <v>-603040.150052239</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2360,24 +2193,21 @@
         <v>-611006.278952239</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>32.4</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2404,22 +2234,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2444,24 +2269,21 @@
         <v>-625995.013452239</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2488,22 +2310,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2528,24 +2345,21 @@
         <v>-622298.027152239</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>32.3</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2572,22 +2386,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2614,22 +2423,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2656,22 +2460,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2698,22 +2497,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2740,22 +2534,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2782,22 +2571,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2824,22 +2608,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2866,22 +2645,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2908,22 +2682,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2950,22 +2719,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2992,22 +2756,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3034,22 +2793,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3076,22 +2830,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3118,22 +2867,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3160,22 +2904,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3202,22 +2941,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3244,22 +2978,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3286,22 +3015,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3328,22 +3052,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3370,22 +3089,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3412,22 +3126,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3452,24 +3161,21 @@
         <v>-653376.855752239</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3494,26 +3200,19 @@
         <v>-653376.855752239</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K79" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3538,24 +3237,21 @@
         <v>-640523.5653522389</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3580,26 +3276,19 @@
         <v>-651668.309852239</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>33</v>
-      </c>
-      <c r="K81" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3624,24 +3313,21 @@
         <v>-664690.494352239</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3668,22 +3354,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3708,26 +3389,19 @@
         <v>-664190.494352239</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="K84" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3754,22 +3428,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3796,22 +3465,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3836,26 +3500,21 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
         <v>32.9</v>
       </c>
-      <c r="K87" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3882,22 +3541,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3922,24 +3576,21 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3966,22 +3617,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4008,22 +3654,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4050,22 +3691,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4090,24 +3726,21 @@
         <v>-674910.5051522389</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>32.7</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4132,24 +3765,21 @@
         <v>-683653.5174522388</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4174,26 +3804,21 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>32.8</v>
       </c>
-      <c r="K95" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4218,26 +3843,21 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>32.7</v>
       </c>
-      <c r="K96" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4262,26 +3882,21 @@
         <v>-700069.8938522389</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>32.7</v>
       </c>
-      <c r="K97" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4306,24 +3921,21 @@
         <v>-700069.8938522389</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>32.6</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4348,26 +3960,21 @@
         <v>-669455.4977522389</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>32.6</v>
       </c>
-      <c r="K99" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4392,26 +3999,21 @@
         <v>-670823.4181522388</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>32.8</v>
       </c>
-      <c r="K100" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4436,26 +4038,21 @@
         <v>-670823.4181522388</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>32.6</v>
       </c>
-      <c r="K101" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4480,26 +4077,21 @@
         <v>-651498.8431522389</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>32.6</v>
       </c>
-      <c r="K102" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4524,26 +4116,21 @@
         <v>-639661.7432522388</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>32.9</v>
       </c>
-      <c r="K103" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4568,24 +4155,21 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4610,24 +4194,21 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4652,24 +4233,21 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4696,22 +4274,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4738,22 +4311,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4780,22 +4348,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4822,22 +4385,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4864,22 +4422,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4904,24 +4457,21 @@
         <v>-654375.589952239</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4946,24 +4496,21 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>33.4</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4990,22 +4537,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5032,22 +4574,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5074,22 +4611,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5116,22 +4648,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5156,24 +4683,21 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5198,24 +4722,21 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>33.7</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5240,24 +4761,21 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5282,24 +4800,21 @@
         <v>-380329.9035522388</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>34.2</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5326,22 +4841,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5368,22 +4878,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5410,22 +4915,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5452,22 +4952,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5494,22 +4989,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5536,22 +5026,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5578,22 +5063,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5620,22 +5100,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5662,22 +5137,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5704,22 +5174,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5746,22 +5211,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5786,24 +5246,19 @@
         <v>-365137.5908522389</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5830,22 +5285,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5870,24 +5320,19 @@
         <v>-448146.0269522389</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5912,24 +5357,19 @@
         <v>-448146.0269522389</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5954,24 +5394,19 @@
         <v>-448614.7769522389</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5996,24 +5431,19 @@
         <v>-571258.8270522389</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6038,24 +5468,19 @@
         <v>-724159.7120522389</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6080,24 +5505,19 @@
         <v>-682923.4376522389</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6122,24 +5542,19 @@
         <v>-675742.6459522389</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6166,22 +5581,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6208,22 +5618,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6250,22 +5655,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6292,22 +5692,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6334,22 +5729,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6376,22 +5766,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6418,22 +5803,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6460,22 +5840,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6502,22 +5877,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6544,22 +5914,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6586,22 +5951,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6628,22 +5988,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6670,22 +6025,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6712,24 +6062,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1.111352201257862</v>
-      </c>
-      <c r="N155" t="n">
-        <v>1.063291139240506</v>
-      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6756,16 +6099,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6792,16 +6136,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6828,16 +6173,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6864,16 +6210,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6900,16 +6247,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6936,16 +6284,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6972,16 +6321,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7008,16 +6358,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7044,16 +6395,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7080,16 +6432,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7114,18 +6467,17 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7150,18 +6502,15 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7188,16 +6537,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7222,18 +6568,15 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7260,16 +6603,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7296,16 +6636,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7330,18 +6667,15 @@
         <v>-603455.5901905949</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7368,16 +6702,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7404,16 +6735,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7440,16 +6768,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7476,16 +6801,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7512,16 +6834,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7548,16 +6867,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7582,18 +6898,15 @@
         <v>-462076.2757905949</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7620,16 +6933,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7656,16 +6966,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7692,16 +6999,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7728,16 +7032,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7764,16 +7065,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7800,16 +7098,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7834,18 +7129,15 @@
         <v>-321659.6681905949</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7872,16 +7164,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7906,18 +7195,15 @@
         <v>-233529.8796905949</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7944,16 +7230,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7980,16 +7263,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8016,16 +7296,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8052,16 +7329,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8088,16 +7362,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8124,16 +7395,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8160,16 +7428,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8196,16 +7461,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8232,16 +7494,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8268,16 +7527,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8304,16 +7560,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8340,16 +7593,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8376,16 +7626,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8412,16 +7659,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8448,16 +7692,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8484,16 +7725,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8520,16 +7758,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8556,16 +7791,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8592,16 +7824,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8628,16 +7857,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8664,16 +7890,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8700,16 +7923,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8736,16 +7956,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8772,16 +7989,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8808,16 +8022,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8844,16 +8055,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8880,16 +8088,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8916,16 +8121,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8952,16 +8154,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8988,16 +8187,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9024,16 +8220,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9060,16 +8253,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9096,16 +8286,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9132,16 +8319,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9168,16 +8352,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9204,16 +8385,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9240,16 +8418,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9276,16 +8451,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9312,16 +8484,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9348,16 +8517,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9384,16 +8550,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9420,16 +8583,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9456,16 +8616,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9492,16 +8649,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9528,16 +8682,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9564,16 +8715,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9600,16 +8748,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9636,16 +8781,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9672,16 +8814,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9706,18 +8845,15 @@
         <v>-516483.7078905947</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9742,18 +8878,15 @@
         <v>-524546.5181905947</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9778,18 +8911,15 @@
         <v>-526360.1348905948</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9816,16 +8946,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9850,18 +8977,15 @@
         <v>-526304.1348905948</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9888,16 +9012,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9922,18 +9043,15 @@
         <v>-518432.1315905948</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9960,16 +9078,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9994,18 +9109,15 @@
         <v>-536480.0078905948</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10030,18 +9142,15 @@
         <v>-536480.0078905948</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10066,18 +9175,15 @@
         <v>-535825.0078905948</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10104,16 +9210,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10138,18 +9241,15 @@
         <v>-544852.3329905948</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10176,16 +9276,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10212,16 +9309,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10246,18 +9340,15 @@
         <v>-595641.3326905948</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10282,18 +9373,15 @@
         <v>-589214.3326905948</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10320,16 +9408,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10356,16 +9441,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10392,16 +9474,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10428,16 +9507,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10464,16 +9540,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10500,16 +9573,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10536,16 +9606,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10572,16 +9639,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10608,16 +9672,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10644,16 +9705,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10680,16 +9738,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10716,16 +9771,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10752,16 +9804,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10788,16 +9837,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10824,16 +9870,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10860,16 +9903,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10896,16 +9936,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10932,16 +9969,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10968,16 +10002,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11004,16 +10035,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11040,16 +10068,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11076,16 +10101,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11112,16 +10134,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11148,16 +10167,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11184,16 +10200,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11220,16 +10233,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11254,18 +10264,15 @@
         <v>-650171.6930905947</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11290,18 +10297,15 @@
         <v>-687739.2385905947</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11326,18 +10330,15 @@
         <v>-690650.0403905947</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11364,16 +10365,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11398,18 +10396,15 @@
         <v>-633147.6488905947</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11436,16 +10431,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11472,16 +10464,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11506,18 +10495,15 @@
         <v>-640201.7993905947</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11544,16 +10530,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11580,16 +10563,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11616,16 +10596,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11652,16 +10629,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11688,16 +10662,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11724,16 +10695,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11760,16 +10728,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11796,16 +10761,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11832,16 +10794,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11868,16 +10827,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11904,16 +10860,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11938,18 +10891,15 @@
         <v>-697335.3906905948</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11974,18 +10924,15 @@
         <v>-697335.3906905948</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12010,18 +10957,15 @@
         <v>-697113.4791905947</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12046,18 +10990,15 @@
         <v>-680507.3232905947</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12084,16 +11025,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12120,16 +11058,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -12156,16 +11091,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -12192,16 +11124,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12228,16 +11157,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -12264,16 +11190,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12300,16 +11223,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12336,16 +11256,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12372,16 +11289,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12408,16 +11322,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12444,16 +11355,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12478,18 +11386,15 @@
         <v>-173724.4261905947</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12516,16 +11421,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12552,16 +11454,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12588,16 +11487,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12622,18 +11518,15 @@
         <v>-408478.8505905947</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12658,18 +11551,15 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12694,18 +11584,15 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12730,18 +11617,15 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12766,18 +11650,15 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12802,18 +11683,15 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12838,18 +11716,15 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12874,18 +11749,15 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12910,18 +11782,15 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12946,18 +11815,15 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12982,18 +11848,15 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13018,18 +11881,15 @@
         <v>-329416.0196905947</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13054,18 +11914,15 @@
         <v>-335562.2800905947</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13092,16 +11949,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13126,18 +11980,15 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -13164,16 +12015,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -13198,18 +12046,15 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -13234,18 +12079,15 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -13270,18 +12112,15 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -13306,18 +12145,15 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -13342,18 +12178,15 @@
         <v>-443022.5682905947</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13378,18 +12211,15 @@
         <v>-467321.0346905947</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13414,18 +12244,15 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13452,16 +12279,13 @@
       <c r="H342" t="n">
         <v>0</v>
       </c>
-      <c r="I342" t="n">
-        <v>0</v>
-      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
-      <c r="N342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13488,16 +12312,13 @@
       <c r="H343" t="n">
         <v>0</v>
       </c>
-      <c r="I343" t="n">
-        <v>0</v>
-      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
-      <c r="M343" t="n">
-        <v>1</v>
-      </c>
-      <c r="N343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13524,16 +12345,13 @@
       <c r="H344" t="n">
         <v>0</v>
       </c>
-      <c r="I344" t="n">
-        <v>0</v>
-      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
-      <c r="M344" t="n">
-        <v>1</v>
-      </c>
-      <c r="N344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13560,16 +12378,13 @@
       <c r="H345" t="n">
         <v>0</v>
       </c>
-      <c r="I345" t="n">
-        <v>0</v>
-      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
-      <c r="M345" t="n">
-        <v>1</v>
-      </c>
-      <c r="N345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13596,16 +12411,13 @@
       <c r="H346" t="n">
         <v>0</v>
       </c>
-      <c r="I346" t="n">
-        <v>0</v>
-      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
-      <c r="M346" t="n">
-        <v>1</v>
-      </c>
-      <c r="N346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13632,16 +12444,13 @@
       <c r="H347" t="n">
         <v>0</v>
       </c>
-      <c r="I347" t="n">
-        <v>0</v>
-      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
-      <c r="M347" t="n">
-        <v>1</v>
-      </c>
-      <c r="N347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13668,16 +12477,13 @@
       <c r="H348" t="n">
         <v>0</v>
       </c>
-      <c r="I348" t="n">
-        <v>0</v>
-      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
-      <c r="M348" t="n">
-        <v>1</v>
-      </c>
-      <c r="N348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13704,16 +12510,13 @@
       <c r="H349" t="n">
         <v>0</v>
       </c>
-      <c r="I349" t="n">
-        <v>0</v>
-      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
-      <c r="M349" t="n">
-        <v>1</v>
-      </c>
-      <c r="N349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13740,16 +12543,13 @@
       <c r="H350" t="n">
         <v>0</v>
       </c>
-      <c r="I350" t="n">
-        <v>0</v>
-      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="n">
-        <v>1</v>
-      </c>
-      <c r="N350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13776,16 +12576,13 @@
       <c r="H351" t="n">
         <v>0</v>
       </c>
-      <c r="I351" t="n">
-        <v>0</v>
-      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
-      <c r="M351" t="n">
-        <v>1</v>
-      </c>
-      <c r="N351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13812,16 +12609,13 @@
       <c r="H352" t="n">
         <v>0</v>
       </c>
-      <c r="I352" t="n">
-        <v>0</v>
-      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
-      <c r="M352" t="n">
-        <v>1</v>
-      </c>
-      <c r="N352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13848,16 +12642,13 @@
       <c r="H353" t="n">
         <v>0</v>
       </c>
-      <c r="I353" t="n">
-        <v>0</v>
-      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
-      <c r="M353" t="n">
-        <v>1</v>
-      </c>
-      <c r="N353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13884,16 +12675,13 @@
       <c r="H354" t="n">
         <v>0</v>
       </c>
-      <c r="I354" t="n">
-        <v>0</v>
-      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
-      <c r="M354" t="n">
-        <v>1</v>
-      </c>
-      <c r="N354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13920,16 +12708,13 @@
       <c r="H355" t="n">
         <v>0</v>
       </c>
-      <c r="I355" t="n">
-        <v>0</v>
-      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
-      <c r="M355" t="n">
-        <v>1</v>
-      </c>
-      <c r="N355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13956,16 +12741,13 @@
       <c r="H356" t="n">
         <v>0</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
-      <c r="M356" t="n">
-        <v>1</v>
-      </c>
-      <c r="N356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13992,16 +12774,13 @@
       <c r="H357" t="n">
         <v>0</v>
       </c>
-      <c r="I357" t="n">
-        <v>0</v>
-      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
-      <c r="M357" t="n">
-        <v>1</v>
-      </c>
-      <c r="N357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -14028,16 +12807,13 @@
       <c r="H358" t="n">
         <v>0</v>
       </c>
-      <c r="I358" t="n">
-        <v>0</v>
-      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
-      <c r="M358" t="n">
-        <v>1</v>
-      </c>
-      <c r="N358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -14064,16 +12840,13 @@
       <c r="H359" t="n">
         <v>0</v>
       </c>
-      <c r="I359" t="n">
-        <v>0</v>
-      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
-      <c r="M359" t="n">
-        <v>1</v>
-      </c>
-      <c r="N359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -14100,16 +12873,13 @@
       <c r="H360" t="n">
         <v>0</v>
       </c>
-      <c r="I360" t="n">
-        <v>0</v>
-      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
-      <c r="M360" t="n">
-        <v>1</v>
-      </c>
-      <c r="N360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -14136,16 +12906,13 @@
       <c r="H361" t="n">
         <v>0</v>
       </c>
-      <c r="I361" t="n">
-        <v>0</v>
-      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
-      <c r="M361" t="n">
-        <v>1</v>
-      </c>
-      <c r="N361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -14172,16 +12939,13 @@
       <c r="H362" t="n">
         <v>0</v>
       </c>
-      <c r="I362" t="n">
-        <v>0</v>
-      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
-      <c r="M362" t="n">
-        <v>1</v>
-      </c>
-      <c r="N362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -14208,16 +12972,13 @@
       <c r="H363" t="n">
         <v>0</v>
       </c>
-      <c r="I363" t="n">
-        <v>0</v>
-      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
-      <c r="M363" t="n">
-        <v>1</v>
-      </c>
-      <c r="N363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -14244,16 +13005,13 @@
       <c r="H364" t="n">
         <v>0</v>
       </c>
-      <c r="I364" t="n">
-        <v>0</v>
-      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
-      <c r="M364" t="n">
-        <v>1</v>
-      </c>
-      <c r="N364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -14280,16 +13038,13 @@
       <c r="H365" t="n">
         <v>0</v>
       </c>
-      <c r="I365" t="n">
-        <v>0</v>
-      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
-      <c r="M365" t="n">
-        <v>1</v>
-      </c>
-      <c r="N365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -14316,16 +13071,13 @@
       <c r="H366" t="n">
         <v>0</v>
       </c>
-      <c r="I366" t="n">
-        <v>0</v>
-      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
-      <c r="M366" t="n">
-        <v>1</v>
-      </c>
-      <c r="N366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -14352,18 +13104,15 @@
       <c r="H367" t="n">
         <v>0</v>
       </c>
-      <c r="I367" t="n">
-        <v>0</v>
-      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
-      <c r="M367" t="n">
-        <v>1</v>
-      </c>
-      <c r="N367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1573,17 +1573,11 @@
         <v>-608341.753252239</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>31.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1612,17 +1606,11 @@
         <v>-608841.753252239</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>31.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1651,17 +1639,15 @@
         <v>-608841.753252239</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>31.8</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1693,10 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1727,15 +1715,17 @@
         <v>-610973.7269522389</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>31.7</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -1766,15 +1756,17 @@
         <v>-679740.638252239</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>31.6</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1805,12 +1797,14 @@
         <v>-679740.638252239</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>31.4</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1844,12 +1838,14 @@
         <v>-671155.491152239</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>31.4</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1883,12 +1879,14 @@
         <v>-671139.491152239</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>31.5</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1922,12 +1920,14 @@
         <v>-550884.782952239</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>31.9</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,12 +1961,14 @@
         <v>-601961.874052239</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>32.1</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2000,12 +2002,14 @@
         <v>-601895.874052239</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>31.9</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2039,12 +2043,14 @@
         <v>-601895.874052239</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>32.3</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,10 +2084,14 @@
         <v>-603075.001052239</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2115,12 +2125,14 @@
         <v>-603075.001052239</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>32.1</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,12 +2166,14 @@
         <v>-603040.150052239</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>32.1</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2193,12 +2207,14 @@
         <v>-611006.278952239</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>32.4</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2232,10 +2248,14 @@
         <v>-610440.278952239</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2269,12 +2289,14 @@
         <v>-625995.013452239</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>32.6</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2308,10 +2330,14 @@
         <v>-622397.027152239</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2345,12 +2371,14 @@
         <v>-622298.027152239</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>32.3</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,10 +2412,14 @@
         <v>-798143.2047522389</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2424,7 +2456,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2461,7 +2495,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,7 +2534,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2532,10 +2570,14 @@
         <v>-796444.312252239</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2569,10 +2611,14 @@
         <v>-796315.013052239</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,10 +2652,14 @@
         <v>-714098.144152239</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2643,10 +2693,14 @@
         <v>-677245.366652239</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J64" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2680,10 +2734,14 @@
         <v>-666517.356252239</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2717,10 +2775,14 @@
         <v>-713232.707252239</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2754,10 +2816,14 @@
         <v>-687862.1315522389</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2791,10 +2857,14 @@
         <v>-636862.1315522389</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>33</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,10 +2898,14 @@
         <v>-636862.1315522389</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,10 +2939,14 @@
         <v>-636991.345552239</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,10 +2980,14 @@
         <v>-636991.345552239</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,7 +3024,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,7 +3063,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,7 +3102,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3053,7 +3141,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,10 +3177,14 @@
         <v>-668282.160052239</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,10 +3218,14 @@
         <v>-668282.160052239</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,12 +3259,14 @@
         <v>-653376.855752239</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>32.7</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,7 +3303,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3237,12 +3339,12 @@
         <v>-640523.5653522389</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3381,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,12 +3417,12 @@
         <v>-664690.494352239</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,7 +3459,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,7 +3498,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,7 +3537,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3463,10 +3573,14 @@
         <v>-682070.550952239</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,12 +3614,14 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>32.9</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,10 +3655,14 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,12 +3696,14 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>33</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3615,10 +3737,14 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,10 +3778,14 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3689,10 +3819,14 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3726,12 +3860,14 @@
         <v>-674910.5051522389</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>32.7</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,12 +3901,14 @@
         <v>-683653.5174522388</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>33</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,12 +3942,14 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>32.8</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,12 +3983,14 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>32.7</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3882,12 +4024,12 @@
         <v>-700069.8938522389</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3921,12 +4063,12 @@
         <v>-700069.8938522389</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3960,12 +4102,14 @@
         <v>-669455.4977522389</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>32.6</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3999,12 +4143,14 @@
         <v>-670823.4181522388</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>32.8</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,12 +4184,14 @@
         <v>-670823.4181522388</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>32.6</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,12 +4225,14 @@
         <v>-651498.8431522389</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>32.6</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,12 +4266,14 @@
         <v>-639661.7432522388</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>32.9</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,12 +4307,14 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>33</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,12 +4348,12 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4233,12 +4387,12 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4275,7 +4429,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,7 +4468,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,7 +4507,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,7 +4546,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,7 +4585,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4457,12 +4621,12 @@
         <v>-654375.589952239</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4496,12 +4660,12 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,7 +4702,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,7 +4741,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4612,7 +4780,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,7 +4819,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,12 +4855,12 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,12 +4894,12 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,12 +4933,12 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>34</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,12 +4972,12 @@
         <v>-380329.9035522388</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,7 +5014,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,7 +5053,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,7 +5092,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4953,7 +5131,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,7 +5170,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,7 +5209,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,7 +5248,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,7 +5287,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,7 +5326,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,7 +5365,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5212,7 +5404,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5246,10 +5440,12 @@
         <v>-365137.5908522389</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,7 +5482,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5320,10 +5518,12 @@
         <v>-448146.0269522389</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,10 +5557,12 @@
         <v>-448146.0269522389</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5394,10 +5596,12 @@
         <v>-448614.7769522389</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,10 +5635,12 @@
         <v>-571258.8270522389</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5468,10 +5674,12 @@
         <v>-724159.7120522389</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,10 +5713,12 @@
         <v>-682923.4376522389</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5542,10 +5752,12 @@
         <v>-675742.6459522389</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,7 +5794,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,7 +5833,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,7 +5872,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,7 +5950,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,7 +5989,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,7 +6028,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,7 +6067,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,7 +6106,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,7 +6145,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,7 +6184,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,7 +6223,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,7 +6301,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,7 +6340,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,7 +6379,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,7 +6418,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,7 +6457,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,7 +6496,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,7 +6535,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,7 +6574,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,7 +6613,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,7 +6652,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6433,7 +6691,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,16 +6727,20 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>31.8</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L166" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
       <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -6502,11 +6766,17 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +6808,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6568,11 +6844,17 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +6886,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6667,11 +6961,17 @@
         <v>-603455.5901905949</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +7003,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +7042,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +7081,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +7120,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7159,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7198,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6898,11 +7234,17 @@
         <v>-462076.2757905949</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7276,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +7315,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +7354,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7033,8 +7393,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7066,8 +7432,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7099,8 +7471,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +7507,17 @@
         <v>-321659.6681905949</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7165,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7195,11 +7585,17 @@
         <v>-233529.8796905949</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7231,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7297,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7330,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7363,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7396,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7495,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7858,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7891,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7924,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7957,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7987,15 +8521,23 @@
         <v>-511466.3476905949</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>1.136509433962264</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.063291139240506</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8845,7 +9387,7 @@
         <v>-516483.7078905947</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8878,7 +9420,7 @@
         <v>-524546.5181905947</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8911,7 +9453,7 @@
         <v>-526360.1348905948</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8977,7 +9519,7 @@
         <v>-526304.1348905948</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9043,7 +9585,7 @@
         <v>-518432.1315905948</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9109,7 +9651,7 @@
         <v>-536480.0078905948</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9142,7 +9684,7 @@
         <v>-536480.0078905948</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9175,7 +9717,7 @@
         <v>-535825.0078905948</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9241,7 +9783,7 @@
         <v>-544852.3329905948</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9340,7 +9882,7 @@
         <v>-595641.3326905948</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9373,7 +9915,7 @@
         <v>-589214.3326905948</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10264,7 +10806,7 @@
         <v>-650171.6930905947</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10297,7 +10839,7 @@
         <v>-687739.2385905947</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10330,7 +10872,7 @@
         <v>-690650.0403905947</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10396,7 +10938,7 @@
         <v>-633147.6488905947</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10495,7 +11037,7 @@
         <v>-640201.7993905947</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10891,7 +11433,7 @@
         <v>-697335.3906905948</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10924,7 +11466,7 @@
         <v>-697335.3906905948</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10957,7 +11499,7 @@
         <v>-697113.4791905947</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10990,7 +11532,7 @@
         <v>-680507.3232905947</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11386,7 +11928,7 @@
         <v>-173724.4261905947</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11518,7 +12060,7 @@
         <v>-408478.8505905947</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11551,7 +12093,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11584,7 +12126,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11617,7 +12159,7 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11650,7 +12192,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11683,7 +12225,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11716,7 +12258,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11749,7 +12291,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11782,7 +12324,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11815,7 +12357,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11848,7 +12390,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11881,7 +12423,7 @@
         <v>-329416.0196905947</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11914,7 +12456,7 @@
         <v>-335562.2800905947</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11980,7 +12522,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12013,7 +12555,7 @@
         <v>-442180.1092905947</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12046,7 +12588,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12079,7 +12621,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12112,7 +12654,7 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12145,7 +12687,7 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12178,7 +12720,7 @@
         <v>-443022.5682905947</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12211,7 +12753,7 @@
         <v>-467321.0346905947</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12244,7 +12786,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12277,7 +12819,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12310,7 +12852,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12541,7 +13083,7 @@
         <v>-425378.2436905947</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12574,7 +13116,7 @@
         <v>-472811.6958905947</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12607,7 +13149,7 @@
         <v>-597592.1020905947</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12640,7 +13182,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12673,7 +13215,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12706,7 +13248,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12739,7 +13281,7 @@
         <v>-597599.5170905946</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12772,7 +13314,7 @@
         <v>-642075.8478905946</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12805,7 +13347,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12838,7 +13380,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12871,7 +13413,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12904,7 +13446,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12937,7 +13479,7 @@
         <v>-635174.3854905945</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12970,7 +13512,7 @@
         <v>-660262.3854905945</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13003,7 +13545,7 @@
         <v>-653945.1134905946</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13036,7 +13578,7 @@
         <v>-653945.1134905946</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13069,7 +13611,7 @@
         <v>-854144.7294905946</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13102,7 +13644,7 @@
         <v>-854144.7294905946</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13113,6 +13655,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1639,14 +1639,10 @@
         <v>-608841.753252239</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>31.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1679,2764 +1675,2332 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-610973.7269522389</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>68766.91130000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-679740.638252239</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>279.0453</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-679740.638252239</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8585.1471</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-671155.491152239</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="C44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>16</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-671139.491152239</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>120254.7082</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-550884.782952239</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+      <c r="C46" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="F46" t="n">
+        <v>51077.0911</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-601961.874052239</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E47" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>66</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-601895.874052239</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E48" t="n">
+        <v>32</v>
+      </c>
+      <c r="F48" t="n">
+        <v>17337.2405</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-601895.874052239</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1179.127</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-603075.001052239</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>66</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-603075.001052239</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E51" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>34.851</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-603040.150052239</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7966.1289</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-611006.278952239</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>566</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-610440.278952239</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>15554.7345</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-625995.013452239</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3597.9863</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-622397.027152239</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>99</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-622298.027152239</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C57" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E57" t="n">
         <v>31.8</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="F57" t="n">
+        <v>175845.1776</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-798143.2047522389</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>142.0776</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-798143.2047522389</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4576</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-793567.2047522389</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C60" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>27474.6634</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-793567.2047522389</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E61" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2877.1075</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-796444.312252239</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="E62" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>129.2992</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-796315.013052239</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C63" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>82216.8689</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-714098.144152239</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>36852.7775</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-677245.366652239</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>10728.0104</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-666517.356252239</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F66" t="n">
+        <v>46715.351</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-713232.707252239</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>33</v>
+      </c>
+      <c r="C67" t="n">
+        <v>33</v>
+      </c>
+      <c r="D67" t="n">
+        <v>33</v>
+      </c>
+      <c r="E67" t="n">
+        <v>33</v>
+      </c>
+      <c r="F67" t="n">
+        <v>25370.5757</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-687862.1315522389</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>33</v>
+      </c>
+      <c r="C68" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>33</v>
+      </c>
+      <c r="F68" t="n">
+        <v>51000</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-636862.1315522389</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>263.8067</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-636862.1315522389</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>33</v>
+      </c>
+      <c r="C70" t="n">
+        <v>33</v>
+      </c>
+      <c r="D70" t="n">
+        <v>33</v>
+      </c>
+      <c r="E70" t="n">
+        <v>33</v>
+      </c>
+      <c r="F70" t="n">
+        <v>129.214</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-636991.345552239</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>33</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>33</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15786.1078</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-636991.345552239</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>32874.6899</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-669866.035452239</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>48577.0911</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-669866.035452239</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E74" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2276.9449</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-667589.090552239</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C75" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E75" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>693.0694999999999</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-668282.160052239</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D76" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E76" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4921.0201</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-668282.160052239</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7740.4288</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-668282.160052239</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>14905.3043</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-653376.855752239</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C79" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D79" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F79" t="n">
+        <v>44423.4215</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-653376.855752239</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>33</v>
+      </c>
+      <c r="C80" t="n">
+        <v>33</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33</v>
+      </c>
+      <c r="E80" t="n">
+        <v>33</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12853.2904</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-640523.5653522389</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C81" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>11144.7445</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-651668.309852239</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13022.1845</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-664690.494352239</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>500</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-664190.494352239</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18380.0566</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-664190.494352239</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18380.0566</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-682570.550952239</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>500</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-682070.550952239</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33</v>
+      </c>
+      <c r="D87" t="n">
+        <v>33</v>
+      </c>
+      <c r="E87" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15103.8275</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-666966.7234522389</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>33</v>
+      </c>
+      <c r="C88" t="n">
+        <v>33</v>
+      </c>
+      <c r="D88" t="n">
+        <v>33</v>
+      </c>
+      <c r="E88" t="n">
+        <v>33</v>
+      </c>
+      <c r="F88" t="n">
+        <v>500</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-666966.7234522389</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12725.078</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-679691.8014522389</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>306</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-679691.8014522389</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1378.4942</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-679691.8014522389</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>692.8964999999999</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-679691.8014522389</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>33</v>
+      </c>
+      <c r="D93" t="n">
+        <v>33</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4781.2963</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-674910.5051522389</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="C94" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8743.0123</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-683653.5174522388</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C95" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7719.1482</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-691372.6656522389</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F96" t="n">
+        <v>17072.3365</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-691372.6656522389</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>8697.2282</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-700069.8938522389</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J97" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="C40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="E40" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>100</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-610973.7269522389</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10359.7354</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-700069.8938522389</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>68766.91130000001</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-679740.638252239</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="F99" t="n">
+        <v>30614.3961</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-669455.4977522389</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1367.9204</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-670823.4181522388</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F101" t="n">
+        <v>7942.1817</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-670823.4181522388</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19324.575</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-651498.8431522389</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>33</v>
+      </c>
+      <c r="C103" t="n">
+        <v>33</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33</v>
+      </c>
+      <c r="E103" t="n">
+        <v>33</v>
+      </c>
+      <c r="F103" t="n">
+        <v>11837.0999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-639661.7432522388</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J103" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>261.6743</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-639400.0689522389</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>33</v>
+      </c>
+      <c r="J104" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3387.2726</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-639400.0689522389</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>13957.6731</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-639400.0689522389</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1204.3701</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-638195.6988522389</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C42" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>279.0453</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-679740.638252239</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D43" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E43" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>8585.1471</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-671155.491152239</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="C44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-671139.491152239</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>32</v>
-      </c>
-      <c r="C45" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>32</v>
-      </c>
-      <c r="F45" t="n">
-        <v>120254.7082</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-550884.782952239</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>32</v>
-      </c>
-      <c r="C46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="F46" t="n">
-        <v>51077.0911</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-601961.874052239</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D47" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F47" t="n">
-        <v>66</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-601895.874052239</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31.9</v>
-      </c>
-      <c r="J47" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C48" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E48" t="n">
-        <v>32</v>
-      </c>
-      <c r="F48" t="n">
-        <v>17337.2405</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-601895.874052239</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1179.127</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-603075.001052239</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>66</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-603075.001052239</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>34.851</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-603040.150052239</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7966.1289</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-611006.278952239</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D53" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E53" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>566</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-610440.278952239</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C54" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E54" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>15554.7345</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-625995.013452239</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J54" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D55" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E55" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3597.9863</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-622397.027152239</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C56" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>99</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-622298.027152239</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C57" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D57" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E57" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>175845.1776</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-798143.2047522389</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E58" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F58" t="n">
-        <v>142.0776</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-798143.2047522389</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C59" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E59" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4576</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-793567.2047522389</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C60" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D60" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="F60" t="n">
-        <v>27474.6634</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-793567.2047522389</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="C61" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="D61" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="E61" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2877.1075</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-796444.312252239</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="C62" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="E62" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F62" t="n">
-        <v>129.2992</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-796315.013052239</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="J62" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C63" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D63" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E63" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F63" t="n">
-        <v>82216.8689</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-714098.144152239</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D64" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F64" t="n">
-        <v>36852.7775</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-677245.366652239</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J64" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>10728.0104</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-666517.356252239</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D66" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F66" t="n">
-        <v>46715.351</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-713232.707252239</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>33</v>
-      </c>
-      <c r="C67" t="n">
-        <v>33</v>
-      </c>
-      <c r="D67" t="n">
-        <v>33</v>
-      </c>
-      <c r="E67" t="n">
-        <v>33</v>
-      </c>
-      <c r="F67" t="n">
-        <v>25370.5757</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-687862.1315522389</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J67" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>33</v>
-      </c>
-      <c r="C68" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>33</v>
-      </c>
-      <c r="F68" t="n">
-        <v>51000</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-636862.1315522389</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>33</v>
-      </c>
-      <c r="J68" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>263.8067</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-636862.1315522389</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>33</v>
-      </c>
-      <c r="C70" t="n">
-        <v>33</v>
-      </c>
-      <c r="D70" t="n">
-        <v>33</v>
-      </c>
-      <c r="E70" t="n">
-        <v>33</v>
-      </c>
-      <c r="F70" t="n">
-        <v>129.214</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-636991.345552239</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>33</v>
-      </c>
-      <c r="C71" t="n">
-        <v>33</v>
-      </c>
-      <c r="D71" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E71" t="n">
-        <v>33</v>
-      </c>
-      <c r="F71" t="n">
-        <v>15786.1078</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-636991.345552239</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33</v>
-      </c>
-      <c r="J71" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C72" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D72" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E72" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>32874.6899</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-669866.035452239</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>48577.0911</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-669866.035452239</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C74" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E74" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F74" t="n">
-        <v>2276.9449</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-667589.090552239</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D75" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E75" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>693.0694999999999</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-668282.160052239</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C76" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D76" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E76" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F76" t="n">
-        <v>4921.0201</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-668282.160052239</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7740.4288</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-668282.160052239</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D78" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E78" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F78" t="n">
-        <v>14905.3043</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-653376.855752239</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E79" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F79" t="n">
-        <v>44423.4215</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-653376.855752239</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>33</v>
-      </c>
-      <c r="C80" t="n">
-        <v>33</v>
-      </c>
-      <c r="D80" t="n">
-        <v>33</v>
-      </c>
-      <c r="E80" t="n">
-        <v>33</v>
-      </c>
-      <c r="F80" t="n">
-        <v>12853.2904</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-640523.5653522389</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C81" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D81" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E81" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F81" t="n">
-        <v>11144.7445</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-651668.309852239</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E82" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F82" t="n">
-        <v>13022.1845</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-664690.494352239</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E83" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F83" t="n">
-        <v>500</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-664190.494352239</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E84" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F84" t="n">
-        <v>18380.0566</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-664190.494352239</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>18380.0566</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-682570.550952239</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>500</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-682070.550952239</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>33</v>
-      </c>
-      <c r="D87" t="n">
-        <v>33</v>
-      </c>
-      <c r="E87" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>15103.8275</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-666966.7234522389</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J87" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>33</v>
-      </c>
-      <c r="C88" t="n">
-        <v>33</v>
-      </c>
-      <c r="D88" t="n">
-        <v>33</v>
-      </c>
-      <c r="E88" t="n">
-        <v>33</v>
-      </c>
-      <c r="F88" t="n">
-        <v>500</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-666966.7234522389</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>33</v>
-      </c>
-      <c r="J88" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>12725.078</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-679691.8014522389</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>33</v>
-      </c>
-      <c r="J89" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>306</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-679691.8014522389</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1378.4942</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-679691.8014522389</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D92" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E92" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>692.8964999999999</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-679691.8014522389</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C93" t="n">
-        <v>33</v>
-      </c>
-      <c r="D93" t="n">
-        <v>33</v>
-      </c>
-      <c r="E93" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>4781.2963</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-674910.5051522389</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C94" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D94" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E94" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>8743.0123</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-683653.5174522388</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>33</v>
-      </c>
-      <c r="J94" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C95" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D95" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F95" t="n">
-        <v>7719.1482</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-691372.6656522389</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="D96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="E96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F96" t="n">
-        <v>17072.3365</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-691372.6656522389</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C97" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D97" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E97" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F97" t="n">
-        <v>8697.2282</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-700069.8938522389</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>10359.7354</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-700069.8938522389</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="C99" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="D99" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="F99" t="n">
-        <v>30614.3961</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-669455.4977522389</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C100" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1367.9204</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-670823.4181522388</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="C101" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="D101" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="E101" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F101" t="n">
-        <v>7942.1817</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-670823.4181522388</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="C102" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="E102" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>19324.575</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-651498.8431522389</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>33</v>
-      </c>
-      <c r="C103" t="n">
-        <v>33</v>
-      </c>
-      <c r="D103" t="n">
-        <v>33</v>
-      </c>
-      <c r="E103" t="n">
-        <v>33</v>
-      </c>
-      <c r="F103" t="n">
-        <v>11837.0999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-639661.7432522388</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C104" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D104" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>261.6743</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-639400.0689522389</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>33</v>
-      </c>
-      <c r="J104" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3387.2726</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-639400.0689522389</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C106" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="D106" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="E106" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>13957.6731</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-639400.0689522389</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="C107" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1204.3701</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-638195.6988522389</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4029,13 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J108" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4504,11 +4070,13 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J109" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4543,11 +4111,13 @@
         <v>-637695.6988522389</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>33.3</v>
+      </c>
       <c r="J110" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4582,11 +4152,13 @@
         <v>-654175.589952239</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J111" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4621,11 +4193,13 @@
         <v>-654375.589952239</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>33.5</v>
+      </c>
       <c r="J112" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4660,11 +4234,13 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>33.4</v>
+      </c>
       <c r="J113" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4699,11 +4275,13 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J114" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4738,11 +4316,13 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J115" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4777,11 +4357,13 @@
         <v>-626377.3623522389</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>33.6</v>
+      </c>
       <c r="J116" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4816,11 +4398,13 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>33.4</v>
+      </c>
       <c r="J117" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4855,11 +4439,13 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J118" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4894,11 +4480,13 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>33.7</v>
+      </c>
       <c r="J119" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4933,11 +4521,13 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>34</v>
+      </c>
       <c r="J120" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4976,7 +4566,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5015,7 +4605,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5054,7 +4644,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5093,7 +4683,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5128,21 +4718,23 @@
         <v>-373640.0177522388</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>31.8</v>
+        <v>33.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>1.061465256797583</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.070063694267516</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5167,17 +4759,11 @@
         <v>-373766.2362522389</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5206,17 +4792,11 @@
         <v>-386533.9862522389</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5245,17 +4825,11 @@
         <v>-387533.9862522389</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5287,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5326,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5365,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5404,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5443,14 +4993,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5479,17 +5023,11 @@
         <v>-365988.9428522389</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5521,14 +5059,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5560,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5599,14 +5125,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5638,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5677,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5716,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5755,14 +5257,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5791,17 +5287,11 @@
         <v>-716565.6877522389</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5833,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5872,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5908,17 +5386,11 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5947,17 +5419,11 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5986,17 +5452,11 @@
         <v>-611645.4041522389</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6025,17 +5485,11 @@
         <v>-608281.5407522388</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6064,17 +5518,11 @@
         <v>-605158.4958522388</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6103,17 +5551,11 @@
         <v>-541091.1089522388</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6142,17 +5584,11 @@
         <v>-466898.3785522388</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6181,17 +5617,11 @@
         <v>-470425.2749522388</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6220,17 +5650,11 @@
         <v>-493704.2102522388</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6259,17 +5683,11 @@
         <v>-482822.0642522388</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6298,17 +5716,11 @@
         <v>-570501.1693522389</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6337,17 +5749,11 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6376,17 +5782,11 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6415,17 +5815,11 @@
         <v>-718264.7524522388</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6454,17 +5848,11 @@
         <v>-718150.7524522388</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6493,17 +5881,11 @@
         <v>-714605.0024522388</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6535,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6571,17 +5947,11 @@
         <v>-710538.0024522388</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6610,17 +5980,11 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6649,17 +6013,11 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6688,17 +6046,11 @@
         <v>-560748.1819522388</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6727,17 +6079,11 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6766,17 +6112,11 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6805,17 +6145,11 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6844,17 +6178,11 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6883,17 +6211,11 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6922,17 +6244,11 @@
         <v>-564734.7963905949</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6964,14 +6280,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7003,14 +6313,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7042,14 +6346,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7081,14 +6379,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7117,17 +6409,11 @@
         <v>-595375.059090595</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7156,17 +6442,11 @@
         <v>-547580.766890595</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7195,17 +6475,11 @@
         <v>-547675.7712905949</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7237,14 +6511,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7276,14 +6544,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7315,14 +6577,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7354,14 +6610,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7393,14 +6643,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7432,14 +6676,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7471,14 +6709,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7510,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7549,14 +6775,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7588,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7627,14 +6841,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7666,14 +6874,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7705,14 +6907,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7744,14 +6940,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7783,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7822,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7861,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7900,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7939,14 +7105,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7978,14 +7138,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8017,14 +7171,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8056,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8095,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8134,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8173,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8212,14 +7336,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8251,14 +7369,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8290,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8329,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8368,14 +7468,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +7501,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8443,17 +7531,11 @@
         <v>-518991.4218905949</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8485,14 +7567,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8521,23 +7597,15 @@
         <v>-511466.3476905949</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>1.136509433962264</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1.063291139240506</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -12159,7 +11227,7 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12192,7 +11260,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12225,7 +11293,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12291,7 +11359,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12324,7 +11392,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12357,7 +11425,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12390,7 +11458,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12522,7 +11590,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12555,7 +11623,7 @@
         <v>-442180.1092905947</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12588,7 +11656,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12621,7 +11689,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12654,7 +11722,7 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12687,7 +11755,7 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12720,7 +11788,7 @@
         <v>-443022.5682905947</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12753,7 +11821,7 @@
         <v>-467321.0346905947</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12786,7 +11854,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12819,7 +11887,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12852,7 +11920,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13083,7 +12151,7 @@
         <v>-425378.2436905947</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13116,7 +12184,7 @@
         <v>-472811.6958905947</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13149,7 +12217,7 @@
         <v>-597592.1020905947</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13182,7 +12250,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13215,7 +12283,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13248,7 +12316,7 @@
         <v>-597375.5084905947</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13281,7 +12349,7 @@
         <v>-597599.5170905946</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13314,7 +12382,7 @@
         <v>-642075.8478905946</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13347,7 +12415,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13380,7 +12448,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13413,7 +12481,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13446,7 +12514,7 @@
         <v>-637764.7662905946</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13479,7 +12547,7 @@
         <v>-635174.3854905945</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13512,7 +12580,7 @@
         <v>-660262.3854905945</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13545,7 +12613,7 @@
         <v>-653945.1134905946</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13578,7 +12646,7 @@
         <v>-653945.1134905946</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13611,7 +12679,7 @@
         <v>-854144.7294905946</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13644,7 +12712,7 @@
         <v>-854144.7294905946</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13655,6 +12723,6 @@
       <c r="M367" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest LAMB.xlsx
+++ b/BackTest/2019-11-24 BackTest LAMB.xlsx
@@ -3157,10 +3157,14 @@
         <v>-664190.494352239</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J84" t="n">
+        <v>32.9</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3190,11 +3194,19 @@
         <v>-682570.550952239</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3235,19 @@
         <v>-682070.550952239</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3276,19 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3317,19 @@
         <v>-666966.7234522389</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>33</v>
+      </c>
+      <c r="J88" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3358,19 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>33</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3399,19 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J90" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3440,19 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J91" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3481,19 @@
         <v>-679691.8014522389</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J92" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3522,19 @@
         <v>-674910.5051522389</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="J93" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3563,19 @@
         <v>-683653.5174522388</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>33</v>
+      </c>
+      <c r="J94" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3604,19 @@
         <v>-691372.6656522389</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3559,9 +3651,13 @@
         <v>32.7</v>
       </c>
       <c r="J96" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3596,11 +3692,11 @@
         <v>32.7</v>
       </c>
       <c r="J97" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3637,11 +3733,11 @@
         <v>32.6</v>
       </c>
       <c r="J98" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3678,9 +3774,13 @@
         <v>32.6</v>
       </c>
       <c r="J99" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3715,11 +3815,11 @@
         <v>32.8</v>
       </c>
       <c r="J100" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3756,11 +3856,11 @@
         <v>32.6</v>
       </c>
       <c r="J101" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3797,9 +3897,13 @@
         <v>32.6</v>
       </c>
       <c r="J102" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3938,11 @@
         <v>32.9</v>
       </c>
       <c r="J103" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3875,11 +3979,11 @@
         <v>33</v>
       </c>
       <c r="J104" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3916,9 +4020,13 @@
         <v>33.1</v>
       </c>
       <c r="J105" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>32.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3947,17 +4055,15 @@
         <v>-639400.0689522389</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3988,17 +4094,15 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>33.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4029,13 +4133,11 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4070,13 +4172,11 @@
         <v>-638195.6988522389</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4111,13 +4211,11 @@
         <v>-637695.6988522389</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>33.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4152,13 +4250,11 @@
         <v>-654175.589952239</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4199,7 +4295,7 @@
         <v>33.5</v>
       </c>
       <c r="J112" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4240,7 +4336,7 @@
         <v>33.4</v>
       </c>
       <c r="J113" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4275,13 +4371,11 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4316,13 +4410,11 @@
         <v>-625314.2960522389</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4357,13 +4449,11 @@
         <v>-626377.3623522389</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>33.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4398,13 +4488,11 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>33.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4439,13 +4527,11 @@
         <v>-616608.0391522389</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4480,13 +4566,11 @@
         <v>-541948.5289522388</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>33.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4521,13 +4605,11 @@
         <v>-519152.2345522388</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4566,7 +4648,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4605,7 +4687,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4644,7 +4726,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4683,7 +4765,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4718,23 +4800,21 @@
         <v>-373640.0177522388</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.061465256797583</v>
-      </c>
-      <c r="M125" t="n">
-        <v>1.070063694267516</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4759,11 +4839,17 @@
         <v>-373766.2362522389</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4792,11 +4878,17 @@
         <v>-386533.9862522389</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4825,11 +4917,17 @@
         <v>-387533.9862522389</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +4959,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5037,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5076,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5115,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5151,17 @@
         <v>-365988.9428522389</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5193,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5232,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5271,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5158,8 +5310,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5349,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +5388,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +5427,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5463,17 @@
         <v>-716565.6877522389</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5505,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5544,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5580,17 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +5619,17 @@
         <v>-611531.5441522389</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5658,17 @@
         <v>-611645.4041522389</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +5697,17 @@
         <v>-608281.5407522388</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +5736,17 @@
         <v>-605158.4958522388</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5775,17 @@
         <v>-541091.1089522388</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5584,11 +5814,17 @@
         <v>-466898.3785522388</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +5853,17 @@
         <v>-470425.2749522388</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5650,11 +5892,17 @@
         <v>-493704.2102522388</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +5931,17 @@
         <v>-482822.0642522388</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5970,17 @@
         <v>-570501.1693522389</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +6009,17 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +6048,17 @@
         <v>-711323.6075522389</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6087,17 @@
         <v>-718264.7524522388</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +6126,17 @@
         <v>-718150.7524522388</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +6165,17 @@
         <v>-714605.0024522388</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6207,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5947,11 +6243,17 @@
         <v>-710538.0024522388</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +6282,17 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +6321,17 @@
         <v>-568154.9721522388</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6046,11 +6360,17 @@
         <v>-560748.1819522388</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6079,11 +6399,17 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6112,11 +6438,17 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6145,11 +6477,17 @@
         <v>-561448.1819522388</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6178,11 +6516,17 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6211,11 +6555,17 @@
         <v>-563550.4299522388</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6594,17 @@
         <v>-564734.7963905949</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +6636,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +6675,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +6753,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6409,11 +6789,17 @@
         <v>-595375.059090595</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6442,11 +6828,17 @@
         <v>-547580.766890595</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6475,11 +6867,17 @@
         <v>-547675.7712905949</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +6909,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +6948,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +6987,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7026,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7065,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7104,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7143,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7182,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7221,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7260,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7299,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7338,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7377,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7416,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7455,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7494,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7533,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7572,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +7611,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7650,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +7689,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +7728,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +7767,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +7806,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7303,8 +7845,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7336,8 +7884,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +7923,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7402,8 +7962,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7435,8 +8001,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +8040,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +8079,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7531,11 +8115,17 @@
         <v>-518991.4218905949</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +8157,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7600,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8235,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7666,8 +8274,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7699,8 +8313,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7732,8 +8352,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7765,8 +8391,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7798,8 +8430,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7831,8 +8469,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7864,8 +8508,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7897,8 +8547,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7930,8 +8586,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7963,8 +8625,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7996,8 +8664,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8029,8 +8703,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8062,8 +8742,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8095,8 +8781,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8128,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8161,8 +8859,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8194,8 +8898,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8937,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8260,8 +8976,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +9015,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8326,8 +9054,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +9093,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8392,8 +9132,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8425,8 +9171,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8458,8 +9210,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8491,8 +9249,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8524,8 +9288,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8557,8 +9327,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8590,8 +9366,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8623,8 +9405,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8656,8 +9444,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8689,8 +9483,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8722,8 +9522,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8755,8 +9561,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8788,8 +9600,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +9639,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +9678,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +9717,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +9756,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +9795,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8986,8 +9834,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +9873,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9052,8 +9912,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9085,8 +9951,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9118,8 +9990,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +10029,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9184,8 +10068,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9217,8 +10107,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9250,8 +10146,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9283,8 +10185,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9316,8 +10224,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9349,8 +10263,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9382,8 +10302,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9415,8 +10341,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9448,8 +10380,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9481,8 +10419,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9514,8 +10458,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9547,8 +10497,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9580,8 +10536,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9613,8 +10575,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9646,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9679,8 +10653,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9712,8 +10692,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9745,8 +10731,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9778,8 +10770,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9811,8 +10809,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9844,8 +10848,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9877,8 +10887,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9910,8 +10926,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9943,8 +10965,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9976,8 +11004,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10009,8 +11043,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10042,8 +11082,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10075,8 +11121,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10108,8 +11160,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10141,8 +11199,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10174,8 +11238,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10207,8 +11277,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10240,8 +11316,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10273,8 +11355,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10306,8 +11394,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10339,8 +11433,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10372,8 +11472,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10405,8 +11511,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10438,8 +11550,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10471,8 +11589,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +11628,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +11667,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +11706,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10603,8 +11745,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10636,8 +11784,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10669,8 +11823,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10702,8 +11862,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +11901,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10768,8 +11940,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10801,8 +11979,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +12018,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10867,8 +12057,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10900,8 +12096,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10930,15 +12132,23 @@
         <v>-261483.2022905948</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+        <v>1.168252279635259</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1.070063694267516</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10963,7 +12173,7 @@
         <v>-258379.1630905948</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10996,7 +12206,7 @@
         <v>-173724.4261905947</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11029,7 +12239,7 @@
         <v>-342481.4550905947</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11062,7 +12272,7 @@
         <v>-341513.2734905947</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11095,7 +12305,7 @@
         <v>-408494.8505905947</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11128,7 +12338,7 @@
         <v>-408478.8505905947</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11194,7 +12404,7 @@
         <v>-440725.6301905947</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11227,7 +12437,7 @@
         <v>-278929.9342905947</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11260,7 +12470,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11293,7 +12503,7 @@
         <v>-289554.1241905947</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11326,7 +12536,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11359,7 +12569,7 @@
         <v>-321649.5872905947</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11392,7 +12602,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11425,7 +12635,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11458,7 +12668,7 @@
         <v>-328906.4452905947</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11491,7 +12701,7 @@
         <v>-329416.0196905947</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11524,7 +12734,7 @@
         <v>-335562.2800905947</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11557,7 +12767,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11590,7 +12800,7 @@
         <v>-332447.6299905947</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11623,7 +12833,7 @@
         <v>-442180.1092905947</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11656,7 +12866,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11689,7 +12899,7 @@
         <v>-439573.2919905947</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11722,7 +12932,7 @@
         <v>-441979.8728905947</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11755,7 +12965,7 @@
         <v>-450472.4260905947</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11854,7 +13064,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11920,7 +13130,7 @@
         <v>-466852.2846905947</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11953,7 +13163,7 @@
         <v>-469791.8465905947</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11986,7 +13196,7 @@
         <v>-472114.6274905947</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
